--- a/BackTest/2019-10-18 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-18 BackTest QTUM.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>21</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>6.666666666666667</v>
+      </c>
       <c r="L12" t="n">
         <v>1978.1</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>25</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>26.31578947368421</v>
+      </c>
       <c r="L13" t="n">
         <v>1978.6</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>30</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-20</v>
+      </c>
       <c r="L14" t="n">
         <v>1978.6</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>34</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-20</v>
+      </c>
       <c r="L15" t="n">
         <v>1978.6</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>40</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-38.46153846153847</v>
+      </c>
       <c r="L16" t="n">
         <v>1977.6</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>43</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-40.74074074074074</v>
+      </c>
       <c r="L17" t="n">
         <v>1976.3</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>43</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-30.43478260869566</v>
+      </c>
       <c r="L18" t="n">
         <v>1975.2</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>43</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-27.27272727272727</v>
+      </c>
       <c r="L19" t="n">
         <v>1974.5</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>43</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-27.27272727272727</v>
+      </c>
       <c r="L20" t="n">
         <v>1973.9</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>44</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-30.43478260869566</v>
+      </c>
       <c r="L21" t="n">
         <v>1973.2</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>48</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-65.21739130434783</v>
+      </c>
       <c r="L22" t="n">
         <v>1972.1</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>49</v>
       </c>
       <c r="K23" t="n">
-        <v>-25.58139534883721</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L23" t="n">
         <v>1970.5</v>
@@ -1466,7 +1488,7 @@
         <v>53</v>
       </c>
       <c r="K24" t="n">
-        <v>-14.8936170212766</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L24" t="n">
         <v>1969.8</v>
@@ -1515,7 +1537,7 @@
         <v>56</v>
       </c>
       <c r="K25" t="n">
-        <v>-17.39130434782609</v>
+        <v>-12.5</v>
       </c>
       <c r="L25" t="n">
         <v>1969</v>
@@ -1564,7 +1586,7 @@
         <v>58</v>
       </c>
       <c r="K26" t="n">
-        <v>-22.72727272727273</v>
+        <v>20</v>
       </c>
       <c r="L26" t="n">
         <v>1969</v>
@@ -1613,7 +1635,7 @@
         <v>61</v>
       </c>
       <c r="K27" t="n">
-        <v>-27.65957446808511</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>1969</v>
@@ -1662,7 +1684,7 @@
         <v>65</v>
       </c>
       <c r="K28" t="n">
-        <v>-14.28571428571428</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L28" t="n">
         <v>1969.4</v>
@@ -1711,7 +1733,7 @@
         <v>67</v>
       </c>
       <c r="K29" t="n">
-        <v>-10.63829787234043</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L29" t="n">
         <v>1969.6</v>
@@ -1760,7 +1782,7 @@
         <v>69</v>
       </c>
       <c r="K30" t="n">
-        <v>-4.166666666666666</v>
+        <v>20</v>
       </c>
       <c r="L30" t="n">
         <v>1970</v>
@@ -1809,7 +1831,7 @@
         <v>72</v>
       </c>
       <c r="K31" t="n">
-        <v>-9.803921568627452</v>
+        <v>25</v>
       </c>
       <c r="L31" t="n">
         <v>1970.2</v>
@@ -1860,7 +1882,7 @@
         <v>75</v>
       </c>
       <c r="K32" t="n">
-        <v>-3.703703703703703</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L32" t="n">
         <v>1971.1</v>
@@ -1911,7 +1933,7 @@
         <v>79</v>
       </c>
       <c r="K33" t="n">
-        <v>-18.51851851851852</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L33" t="n">
         <v>1971.7</v>
@@ -1962,7 +1984,7 @@
         <v>80</v>
       </c>
       <c r="K34" t="n">
-        <v>-12</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L34" t="n">
         <v>1971.8</v>
@@ -2013,7 +2035,7 @@
         <v>81</v>
       </c>
       <c r="K35" t="n">
-        <v>-19.14893617021277</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L35" t="n">
         <v>1971.7</v>
@@ -2064,7 +2086,7 @@
         <v>81</v>
       </c>
       <c r="K36" t="n">
-        <v>-7.317073170731707</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>1971.4</v>
@@ -2115,7 +2137,7 @@
         <v>81</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L37" t="n">
         <v>1971.4</v>
@@ -2166,7 +2188,7 @@
         <v>81</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L38" t="n">
         <v>1971</v>
@@ -2217,7 +2239,7 @@
         <v>81</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>1970.8</v>
@@ -2268,7 +2290,7 @@
         <v>81</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L40" t="n">
         <v>1970.4</v>
@@ -2319,7 +2341,7 @@
         <v>81</v>
       </c>
       <c r="K41" t="n">
-        <v>2.702702702702703</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L41" t="n">
         <v>1970.3</v>
@@ -2370,7 +2392,7 @@
         <v>82</v>
       </c>
       <c r="K42" t="n">
-        <v>17.64705882352941</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>1970</v>
@@ -2421,7 +2443,7 @@
         <v>87</v>
       </c>
       <c r="K43" t="n">
-        <v>31.57894736842105</v>
+        <v>100</v>
       </c>
       <c r="L43" t="n">
         <v>1970.6</v>
@@ -2472,7 +2494,7 @@
         <v>88</v>
       </c>
       <c r="K44" t="n">
-        <v>20</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L44" t="n">
         <v>1971.2</v>
@@ -2523,7 +2545,7 @@
         <v>89</v>
       </c>
       <c r="K45" t="n">
-        <v>15.15151515151515</v>
+        <v>75</v>
       </c>
       <c r="L45" t="n">
         <v>1971.8</v>
@@ -2574,7 +2596,7 @@
         <v>95</v>
       </c>
       <c r="K46" t="n">
-        <v>-8.108108108108109</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>1971.8</v>
@@ -2676,7 +2698,7 @@
         <v>100</v>
       </c>
       <c r="K48" t="n">
-        <v>2.857142857142857</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L48" t="n">
         <v>1972.3</v>
@@ -2727,7 +2749,7 @@
         <v>105</v>
       </c>
       <c r="K49" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>1972.3</v>
@@ -2778,7 +2800,7 @@
         <v>105</v>
       </c>
       <c r="K50" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>1972.3</v>
@@ -2829,7 +2851,7 @@
         <v>111</v>
       </c>
       <c r="K51" t="n">
-        <v>12.82051282051282</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L51" t="n">
         <v>1972.9</v>
@@ -2880,7 +2902,7 @@
         <v>116</v>
       </c>
       <c r="K52" t="n">
-        <v>-7.317073170731707</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L52" t="n">
         <v>1972.9</v>
@@ -2931,7 +2953,7 @@
         <v>118</v>
       </c>
       <c r="K53" t="n">
-        <v>7.692307692307693</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L53" t="n">
         <v>1972.6</v>
@@ -2982,7 +3004,7 @@
         <v>125</v>
       </c>
       <c r="K54" t="n">
-        <v>24.44444444444444</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L54" t="n">
         <v>1973.1</v>
@@ -3033,7 +3055,7 @@
         <v>129</v>
       </c>
       <c r="K55" t="n">
-        <v>12.5</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L55" t="n">
         <v>1973.1</v>
@@ -3084,7 +3106,7 @@
         <v>137</v>
       </c>
       <c r="K56" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L56" t="n">
         <v>1974.5</v>
@@ -3135,7 +3157,7 @@
         <v>142</v>
       </c>
       <c r="K57" t="n">
-        <v>31.14754098360656</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L57" t="n">
         <v>1976.4</v>
@@ -3186,7 +3208,7 @@
         <v>142</v>
       </c>
       <c r="K58" t="n">
-        <v>31.14754098360656</v>
+        <v>51.35135135135135</v>
       </c>
       <c r="L58" t="n">
         <v>1977.8</v>
@@ -3237,7 +3259,7 @@
         <v>143</v>
       </c>
       <c r="K59" t="n">
-        <v>29.03225806451613</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L59" t="n">
         <v>1979.6</v>
@@ -3288,7 +3310,7 @@
         <v>152</v>
       </c>
       <c r="K60" t="n">
-        <v>12.67605633802817</v>
+        <v>7.317073170731707</v>
       </c>
       <c r="L60" t="n">
         <v>1980.5</v>
@@ -3339,7 +3361,7 @@
         <v>157</v>
       </c>
       <c r="K61" t="n">
-        <v>18.42105263157895</v>
+        <v>31.70731707317073</v>
       </c>
       <c r="L61" t="n">
         <v>1981.3</v>
@@ -3390,7 +3412,7 @@
         <v>163</v>
       </c>
       <c r="K62" t="n">
-        <v>23.45679012345679</v>
+        <v>37.77777777777778</v>
       </c>
       <c r="L62" t="n">
         <v>1983.2</v>
@@ -3441,7 +3463,7 @@
         <v>171</v>
       </c>
       <c r="K63" t="n">
-        <v>7.142857142857142</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L63" t="n">
         <v>1984.1</v>
@@ -3492,7 +3514,7 @@
         <v>172</v>
       </c>
       <c r="K64" t="n">
-        <v>7.142857142857142</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="L64" t="n">
         <v>1984.2</v>
@@ -3543,7 +3565,7 @@
         <v>172</v>
       </c>
       <c r="K65" t="n">
-        <v>6.024096385542169</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L65" t="n">
         <v>1984.7</v>
@@ -3594,7 +3616,7 @@
         <v>172</v>
       </c>
       <c r="K66" t="n">
-        <v>14.28571428571428</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L66" t="n">
         <v>1984.4</v>
@@ -3645,7 +3667,7 @@
         <v>175</v>
       </c>
       <c r="K67" t="n">
-        <v>17.5</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L67" t="n">
         <v>1983.9</v>
@@ -3696,7 +3718,7 @@
         <v>177</v>
       </c>
       <c r="K68" t="n">
-        <v>9.090909090909092</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L68" t="n">
         <v>1983.2</v>
@@ -3747,7 +3769,7 @@
         <v>177</v>
       </c>
       <c r="K69" t="n">
-        <v>16.66666666666666</v>
+        <v>12</v>
       </c>
       <c r="L69" t="n">
         <v>1982.6</v>
@@ -3798,7 +3820,7 @@
         <v>182</v>
       </c>
       <c r="K70" t="n">
-        <v>22.07792207792208</v>
+        <v>12</v>
       </c>
       <c r="L70" t="n">
         <v>1983.4</v>
@@ -3849,7 +3871,7 @@
         <v>187</v>
       </c>
       <c r="K71" t="n">
-        <v>7.894736842105263</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L71" t="n">
         <v>1983.2</v>
@@ -3900,7 +3922,7 @@
         <v>187</v>
       </c>
       <c r="K72" t="n">
-        <v>15.49295774647887</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>1982.4</v>
@@ -3951,7 +3973,7 @@
         <v>199</v>
       </c>
       <c r="K73" t="n">
-        <v>25.92592592592592</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="L73" t="n">
         <v>1983.6</v>
@@ -4002,7 +4024,7 @@
         <v>202</v>
       </c>
       <c r="K74" t="n">
-        <v>22.07792207792208</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="L74" t="n">
         <v>1985.2</v>
@@ -4053,7 +4075,7 @@
         <v>204</v>
       </c>
       <c r="K75" t="n">
-        <v>30.66666666666666</v>
+        <v>56.25</v>
       </c>
       <c r="L75" t="n">
         <v>1987</v>
@@ -4104,7 +4126,7 @@
         <v>213</v>
       </c>
       <c r="K76" t="n">
-        <v>7.894736842105263</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L76" t="n">
         <v>1987.9</v>
@@ -4155,7 +4177,7 @@
         <v>214</v>
       </c>
       <c r="K77" t="n">
-        <v>2.777777777777778</v>
+        <v>24.32432432432433</v>
       </c>
       <c r="L77" t="n">
         <v>1988.6</v>
@@ -4206,7 +4228,7 @@
         <v>218</v>
       </c>
       <c r="K78" t="n">
-        <v>7.894736842105263</v>
+        <v>31.70731707317073</v>
       </c>
       <c r="L78" t="n">
         <v>1989.9</v>
@@ -4257,7 +4279,7 @@
         <v>219</v>
       </c>
       <c r="K79" t="n">
-        <v>10.52631578947368</v>
+        <v>24.32432432432433</v>
       </c>
       <c r="L79" t="n">
         <v>1991.3</v>
@@ -4308,7 +4330,7 @@
         <v>227</v>
       </c>
       <c r="K80" t="n">
-        <v>33.33333333333333</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="L80" t="n">
         <v>1993</v>
@@ -4359,7 +4381,7 @@
         <v>233</v>
       </c>
       <c r="K81" t="n">
-        <v>34.21052631578947</v>
+        <v>60.86956521739131</v>
       </c>
       <c r="L81" t="n">
         <v>1995.8</v>
@@ -4410,7 +4432,7 @@
         <v>233</v>
       </c>
       <c r="K82" t="n">
-        <v>28.57142857142857</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L82" t="n">
         <v>1998.6</v>
@@ -4461,7 +4483,7 @@
         <v>234</v>
       </c>
       <c r="K83" t="n">
-        <v>46.03174603174603</v>
+        <v>43.75</v>
       </c>
       <c r="L83" t="n">
         <v>2000.3</v>
@@ -4512,7 +4534,7 @@
         <v>235</v>
       </c>
       <c r="K84" t="n">
-        <v>49.2063492063492</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="L84" t="n">
         <v>2001.8</v>
@@ -4563,7 +4585,7 @@
         <v>235</v>
       </c>
       <c r="K85" t="n">
-        <v>49.2063492063492</v>
+        <v>100</v>
       </c>
       <c r="L85" t="n">
         <v>2003.1</v>
@@ -4614,7 +4636,7 @@
         <v>236</v>
       </c>
       <c r="K86" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L86" t="n">
         <v>2005.4</v>
@@ -4665,7 +4687,7 @@
         <v>240</v>
       </c>
       <c r="K87" t="n">
-        <v>50.76923076923077</v>
+        <v>100</v>
       </c>
       <c r="L87" t="n">
         <v>2008</v>
@@ -4716,7 +4738,7 @@
         <v>243</v>
       </c>
       <c r="K88" t="n">
-        <v>57.57575757575758</v>
+        <v>100</v>
       </c>
       <c r="L88" t="n">
         <v>2010.5</v>
@@ -4767,7 +4789,7 @@
         <v>243</v>
       </c>
       <c r="K89" t="n">
-        <v>57.57575757575758</v>
+        <v>100</v>
       </c>
       <c r="L89" t="n">
         <v>2012.9</v>
@@ -4818,7 +4840,7 @@
         <v>245</v>
       </c>
       <c r="K90" t="n">
-        <v>55.55555555555556</v>
+        <v>100</v>
       </c>
       <c r="L90" t="n">
         <v>2014.7</v>
@@ -4869,7 +4891,7 @@
         <v>249</v>
       </c>
       <c r="K91" t="n">
-        <v>70.96774193548387</v>
+        <v>100</v>
       </c>
       <c r="L91" t="n">
         <v>2016.3</v>
@@ -4920,7 +4942,7 @@
         <v>249</v>
       </c>
       <c r="K92" t="n">
-        <v>70.96774193548387</v>
+        <v>100</v>
       </c>
       <c r="L92" t="n">
         <v>2017.9</v>
@@ -4971,7 +4993,7 @@
         <v>249</v>
       </c>
       <c r="K93" t="n">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="L93" t="n">
         <v>2019.4</v>
@@ -5022,7 +5044,7 @@
         <v>250</v>
       </c>
       <c r="K94" t="n">
-        <v>62.5</v>
+        <v>100</v>
       </c>
       <c r="L94" t="n">
         <v>2020.9</v>
@@ -5073,7 +5095,7 @@
         <v>253</v>
       </c>
       <c r="K95" t="n">
-        <v>63.26530612244898</v>
+        <v>100</v>
       </c>
       <c r="L95" t="n">
         <v>2022.7</v>
@@ -5124,7 +5146,7 @@
         <v>256</v>
       </c>
       <c r="K96" t="n">
-        <v>86.04651162790698</v>
+        <v>62.5</v>
       </c>
       <c r="L96" t="n">
         <v>2024.1</v>
@@ -5175,7 +5197,7 @@
         <v>256</v>
       </c>
       <c r="K97" t="n">
-        <v>85.71428571428571</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L97" t="n">
         <v>2025.1</v>
@@ -5226,7 +5248,7 @@
         <v>256</v>
       </c>
       <c r="K98" t="n">
-        <v>84.21052631578947</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L98" t="n">
         <v>2025.8</v>
@@ -5277,7 +5299,7 @@
         <v>256</v>
       </c>
       <c r="K99" t="n">
-        <v>83.78378378378379</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L99" t="n">
         <v>2026.5</v>
@@ -5328,7 +5350,7 @@
         <v>260</v>
       </c>
       <c r="K100" t="n">
-        <v>57.57575757575758</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L100" t="n">
         <v>2026.6</v>
@@ -5379,7 +5401,7 @@
         <v>260</v>
       </c>
       <c r="K101" t="n">
-        <v>48.14814814814815</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L101" t="n">
         <v>2026.3</v>
@@ -5430,7 +5452,7 @@
         <v>261</v>
       </c>
       <c r="K102" t="n">
-        <v>42.85714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L102" t="n">
         <v>2025.9</v>
@@ -5481,7 +5503,7 @@
         <v>268</v>
       </c>
       <c r="K103" t="n">
-        <v>52.94117647058824</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L103" t="n">
         <v>2026.2</v>
@@ -5532,7 +5554,7 @@
         <v>276</v>
       </c>
       <c r="K104" t="n">
-        <v>21.95121951219512</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L104" t="n">
         <v>2025.6</v>
@@ -5583,7 +5605,7 @@
         <v>276</v>
       </c>
       <c r="K105" t="n">
-        <v>21.95121951219512</v>
+        <v>-30</v>
       </c>
       <c r="L105" t="n">
         <v>2024.7</v>
@@ -5634,7 +5656,7 @@
         <v>277</v>
       </c>
       <c r="K106" t="n">
-        <v>21.95121951219512</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L106" t="n">
         <v>2024.2</v>
@@ -5685,7 +5707,7 @@
         <v>286</v>
       </c>
       <c r="K107" t="n">
-        <v>30.43478260869566</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L107" t="n">
         <v>2024.6</v>
@@ -5736,7 +5758,7 @@
         <v>291</v>
       </c>
       <c r="K108" t="n">
-        <v>33.33333333333333</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L108" t="n">
         <v>2025.5</v>
@@ -5787,7 +5809,7 @@
         <v>293</v>
       </c>
       <c r="K109" t="n">
-        <v>36</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L109" t="n">
         <v>2026.6</v>
@@ -5838,7 +5860,7 @@
         <v>298</v>
       </c>
       <c r="K110" t="n">
-        <v>39.62264150943396</v>
+        <v>52.63157894736842</v>
       </c>
       <c r="L110" t="n">
         <v>2028.6</v>
@@ -5889,7 +5911,7 @@
         <v>306</v>
       </c>
       <c r="K111" t="n">
-        <v>15.78947368421053</v>
+        <v>28.88888888888889</v>
       </c>
       <c r="L111" t="n">
         <v>2029.8</v>
@@ -5940,7 +5962,7 @@
         <v>314</v>
       </c>
       <c r="K112" t="n">
-        <v>26.15384615384616</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L112" t="n">
         <v>2031.9</v>
@@ -5991,7 +6013,7 @@
         <v>316</v>
       </c>
       <c r="K113" t="n">
-        <v>28.35820895522388</v>
+        <v>60</v>
       </c>
       <c r="L113" t="n">
         <v>2033.5</v>
@@ -6042,7 +6064,7 @@
         <v>318</v>
       </c>
       <c r="K114" t="n">
-        <v>29.41176470588236</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L114" t="n">
         <v>2036.1</v>
@@ -6093,7 +6115,7 @@
         <v>321</v>
       </c>
       <c r="K115" t="n">
-        <v>29.41176470588236</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L115" t="n">
         <v>2039</v>
@@ -6144,7 +6166,7 @@
         <v>321</v>
       </c>
       <c r="K116" t="n">
-        <v>35.38461538461539</v>
+        <v>54.28571428571428</v>
       </c>
       <c r="L116" t="n">
         <v>2041.8</v>
@@ -6195,7 +6217,7 @@
         <v>322</v>
       </c>
       <c r="K117" t="n">
-        <v>36.36363636363637</v>
+        <v>48.38709677419355</v>
       </c>
       <c r="L117" t="n">
         <v>2043.8</v>
@@ -6246,7 +6268,7 @@
         <v>322</v>
       </c>
       <c r="K118" t="n">
-        <v>36.36363636363637</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="L118" t="n">
         <v>2045.3</v>
@@ -6297,7 +6319,7 @@
         <v>323</v>
       </c>
       <c r="K119" t="n">
-        <v>34.32835820895522</v>
+        <v>28</v>
       </c>
       <c r="L119" t="n">
         <v>2046.5</v>
@@ -6348,7 +6370,7 @@
         <v>323</v>
       </c>
       <c r="K120" t="n">
-        <v>42.85714285714285</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L120" t="n">
         <v>2047.2</v>
@@ -6399,7 +6421,7 @@
         <v>329</v>
       </c>
       <c r="K121" t="n">
-        <v>47.82608695652174</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L121" t="n">
         <v>2049.3</v>
@@ -6450,7 +6472,7 @@
         <v>338</v>
       </c>
       <c r="K122" t="n">
-        <v>32.46753246753246</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L122" t="n">
         <v>2049.7</v>
@@ -6501,7 +6523,7 @@
         <v>346</v>
       </c>
       <c r="K123" t="n">
-        <v>33.33333333333333</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L123" t="n">
         <v>2050.7</v>
@@ -6552,7 +6574,7 @@
         <v>358</v>
       </c>
       <c r="K124" t="n">
-        <v>26.82926829268293</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L124" t="n">
         <v>2050.3</v>
@@ -6603,7 +6625,7 @@
         <v>358</v>
       </c>
       <c r="K125" t="n">
-        <v>26.82926829268293</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L125" t="n">
         <v>2049.6</v>
@@ -6654,7 +6676,7 @@
         <v>367</v>
       </c>
       <c r="K126" t="n">
-        <v>33.33333333333333</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="L126" t="n">
         <v>2049.8</v>
@@ -6705,7 +6727,7 @@
         <v>376</v>
       </c>
       <c r="K127" t="n">
-        <v>13.33333333333333</v>
+        <v>-14.81481481481481</v>
       </c>
       <c r="L127" t="n">
         <v>2049</v>
@@ -6756,7 +6778,7 @@
         <v>385</v>
       </c>
       <c r="K128" t="n">
-        <v>17.02127659574468</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L128" t="n">
         <v>2049.1</v>
@@ -6807,7 +6829,7 @@
         <v>385</v>
       </c>
       <c r="K129" t="n">
-        <v>15.21739130434783</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L129" t="n">
         <v>2049.3</v>
@@ -6858,7 +6880,7 @@
         <v>389</v>
       </c>
       <c r="K130" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>2049.9</v>
@@ -6909,7 +6931,7 @@
         <v>393</v>
       </c>
       <c r="K131" t="n">
-        <v>19.54022988505747</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L131" t="n">
         <v>2049.5</v>
@@ -6960,7 +6982,7 @@
         <v>394</v>
       </c>
       <c r="K132" t="n">
-        <v>12.5</v>
+        <v>-4.166666666666666</v>
       </c>
       <c r="L132" t="n">
         <v>2050.1</v>
@@ -7011,7 +7033,7 @@
         <v>395</v>
       </c>
       <c r="K133" t="n">
-        <v>11.39240506329114</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L133" t="n">
         <v>2050</v>
@@ -7062,7 +7084,7 @@
         <v>395</v>
       </c>
       <c r="K134" t="n">
-        <v>9.090909090909092</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L134" t="n">
         <v>2051.1</v>
@@ -7113,7 +7135,7 @@
         <v>396</v>
       </c>
       <c r="K135" t="n">
-        <v>6.666666666666667</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L135" t="n">
         <v>2052.3</v>
@@ -7164,7 +7186,7 @@
         <v>398</v>
       </c>
       <c r="K136" t="n">
-        <v>3.896103896103896</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L136" t="n">
         <v>2052.4</v>
@@ -7215,7 +7237,7 @@
         <v>399</v>
       </c>
       <c r="K137" t="n">
-        <v>1.298701298701299</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
         <v>2053.3</v>
@@ -7266,7 +7288,7 @@
         <v>404</v>
       </c>
       <c r="K138" t="n">
-        <v>-4.878048780487805</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L138" t="n">
         <v>2052.8</v>
@@ -7317,7 +7339,7 @@
         <v>406</v>
       </c>
       <c r="K139" t="n">
-        <v>-6.024096385542169</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L139" t="n">
         <v>2052.1</v>
@@ -7368,7 +7390,7 @@
         <v>407</v>
       </c>
       <c r="K140" t="n">
-        <v>-4.761904761904762</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L140" t="n">
         <v>2051.1</v>
@@ -7419,7 +7441,7 @@
         <v>409</v>
       </c>
       <c r="K141" t="n">
-        <v>-15</v>
+        <v>-60</v>
       </c>
       <c r="L141" t="n">
         <v>2050.3</v>
@@ -7470,7 +7492,7 @@
         <v>410</v>
       </c>
       <c r="K142" t="n">
-        <v>-2.777777777777778</v>
+        <v>-60</v>
       </c>
       <c r="L142" t="n">
         <v>2049.5</v>
@@ -7521,7 +7543,7 @@
         <v>412</v>
       </c>
       <c r="K143" t="n">
-        <v>-12.12121212121212</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L143" t="n">
         <v>2048.8</v>
@@ -7572,7 +7594,7 @@
         <v>416</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="L144" t="n">
         <v>2047.7</v>
@@ -7623,7 +7645,7 @@
         <v>419</v>
       </c>
       <c r="K145" t="n">
-        <v>4.918032786885246</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L145" t="n">
         <v>2046.8</v>
@@ -7674,7 +7696,7 @@
         <v>421</v>
       </c>
       <c r="K146" t="n">
-        <v>-14.81481481481481</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L146" t="n">
         <v>2045.9</v>
@@ -7725,7 +7747,7 @@
         <v>421</v>
       </c>
       <c r="K147" t="n">
-        <v>2.222222222222222</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L147" t="n">
         <v>2045.1</v>
@@ -7776,7 +7798,7 @@
         <v>423</v>
       </c>
       <c r="K148" t="n">
-        <v>-15.78947368421053</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L148" t="n">
         <v>2045</v>
@@ -7827,7 +7849,7 @@
         <v>425</v>
       </c>
       <c r="K149" t="n">
-        <v>-20</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L149" t="n">
         <v>2044.9</v>
@@ -7878,7 +7900,7 @@
         <v>426</v>
       </c>
       <c r="K150" t="n">
-        <v>-35.13513513513514</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L150" t="n">
         <v>2044.6</v>
@@ -7929,7 +7951,7 @@
         <v>426</v>
       </c>
       <c r="K151" t="n">
-        <v>-27.27272727272727</v>
+        <v>-12.5</v>
       </c>
       <c r="L151" t="n">
         <v>2044.5</v>
@@ -7980,7 +8002,7 @@
         <v>426</v>
       </c>
       <c r="K152" t="n">
-        <v>-31.25</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L152" t="n">
         <v>2044.3</v>
@@ -8031,7 +8053,7 @@
         <v>429</v>
       </c>
       <c r="K153" t="n">
-        <v>-41.17647058823529</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L153" t="n">
         <v>2043.6</v>
@@ -8082,7 +8104,7 @@
         <v>429</v>
       </c>
       <c r="K154" t="n">
-        <v>-41.17647058823529</v>
+        <v>-60</v>
       </c>
       <c r="L154" t="n">
         <v>2043.3</v>
@@ -8133,7 +8155,7 @@
         <v>434</v>
       </c>
       <c r="K155" t="n">
-        <v>-26.31578947368421</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L155" t="n">
         <v>2043.2</v>
@@ -8184,7 +8206,7 @@
         <v>443</v>
       </c>
       <c r="K156" t="n">
-        <v>-37.77777777777778</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L156" t="n">
         <v>2042.4</v>
@@ -8235,7 +8257,7 @@
         <v>446</v>
       </c>
       <c r="K157" t="n">
-        <v>-40.42553191489361</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L157" t="n">
         <v>2041.3</v>
@@ -8286,7 +8308,7 @@
         <v>452</v>
       </c>
       <c r="K158" t="n">
-        <v>-41.66666666666667</v>
+        <v>-62.96296296296296</v>
       </c>
       <c r="L158" t="n">
         <v>2039.4</v>
@@ -8337,7 +8359,7 @@
         <v>458</v>
       </c>
       <c r="K159" t="n">
-        <v>-46.15384615384615</v>
+        <v>-68.75</v>
       </c>
       <c r="L159" t="n">
         <v>2037.1</v>
@@ -8388,7 +8410,7 @@
         <v>468</v>
       </c>
       <c r="K160" t="n">
-        <v>-24.59016393442623</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L160" t="n">
         <v>2035.9</v>
@@ -8439,7 +8461,7 @@
         <v>478</v>
       </c>
       <c r="K161" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.30769230769231</v>
       </c>
       <c r="L161" t="n">
         <v>2033.7</v>
@@ -8490,7 +8512,7 @@
         <v>484</v>
       </c>
       <c r="K162" t="n">
-        <v>-24.32432432432433</v>
+        <v>-23.63636363636364</v>
       </c>
       <c r="L162" t="n">
         <v>2032.1</v>
@@ -8541,7 +8563,7 @@
         <v>492</v>
       </c>
       <c r="K163" t="n">
-        <v>-35</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L163" t="n">
         <v>2030</v>
@@ -8592,7 +8614,7 @@
         <v>496</v>
       </c>
       <c r="K164" t="n">
-        <v>-25</v>
+        <v>-35.48387096774194</v>
       </c>
       <c r="L164" t="n">
         <v>2028.3</v>
@@ -8643,7 +8665,7 @@
         <v>500</v>
       </c>
       <c r="K165" t="n">
-        <v>-23.45679012345679</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L165" t="n">
         <v>2026.5</v>
@@ -8694,7 +8716,7 @@
         <v>506</v>
       </c>
       <c r="K166" t="n">
-        <v>-27.05882352941176</v>
+        <v>-20</v>
       </c>
       <c r="L166" t="n">
         <v>2025</v>
@@ -8745,7 +8767,7 @@
         <v>506</v>
       </c>
       <c r="K167" t="n">
-        <v>-27.05882352941176</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L167" t="n">
         <v>2023.8</v>
@@ -8796,7 +8818,7 @@
         <v>510</v>
       </c>
       <c r="K168" t="n">
-        <v>-24.13793103448276</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L168" t="n">
         <v>2023.6</v>
@@ -8847,7 +8869,7 @@
         <v>511</v>
       </c>
       <c r="K169" t="n">
-        <v>-23.25581395348837</v>
+        <v>-16.27906976744186</v>
       </c>
       <c r="L169" t="n">
         <v>2023.9</v>
@@ -8898,7 +8920,7 @@
         <v>514</v>
       </c>
       <c r="K170" t="n">
-        <v>-18.18181818181818</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L170" t="n">
         <v>2023.5</v>
@@ -8949,7 +8971,7 @@
         <v>516</v>
       </c>
       <c r="K171" t="n">
-        <v>-20</v>
+        <v>-6.25</v>
       </c>
       <c r="L171" t="n">
         <v>2023.9</v>
@@ -9000,7 +9022,7 @@
         <v>517</v>
       </c>
       <c r="K172" t="n">
-        <v>-18.68131868131868</v>
+        <v>28</v>
       </c>
       <c r="L172" t="n">
         <v>2023.8</v>
@@ -9051,7 +9073,7 @@
         <v>519</v>
       </c>
       <c r="K173" t="n">
-        <v>-13.33333333333333</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L173" t="n">
         <v>2024.7</v>
@@ -9102,7 +9124,7 @@
         <v>523</v>
       </c>
       <c r="K174" t="n">
-        <v>-17.02127659574468</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L174" t="n">
         <v>2024.8</v>
@@ -9153,7 +9175,7 @@
         <v>534</v>
       </c>
       <c r="K175" t="n">
-        <v>-10</v>
+        <v>50</v>
       </c>
       <c r="L175" t="n">
         <v>2025.6</v>
@@ -9204,7 +9226,7 @@
         <v>541</v>
       </c>
       <c r="K176" t="n">
-        <v>-8.163265306122449</v>
+        <v>20</v>
       </c>
       <c r="L176" t="n">
         <v>2026.3</v>
@@ -9255,7 +9277,7 @@
         <v>551</v>
       </c>
       <c r="K177" t="n">
-        <v>4.761904761904762</v>
+        <v>31.70731707317073</v>
       </c>
       <c r="L177" t="n">
         <v>2028</v>
@@ -9306,7 +9328,7 @@
         <v>551</v>
       </c>
       <c r="K178" t="n">
-        <v>11.11111111111111</v>
+        <v>35</v>
       </c>
       <c r="L178" t="n">
         <v>2029.3</v>
@@ -9357,7 +9379,7 @@
         <v>556</v>
       </c>
       <c r="K179" t="n">
-        <v>12.24489795918367</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L179" t="n">
         <v>2030.2</v>
@@ -9408,7 +9430,7 @@
         <v>559</v>
       </c>
       <c r="K180" t="n">
-        <v>-1.098901098901099</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="L180" t="n">
         <v>2030.5</v>
@@ -9459,7 +9481,7 @@
         <v>560</v>
       </c>
       <c r="K181" t="n">
-        <v>9.75609756097561</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="L181" t="n">
         <v>2030.9</v>
@@ -9510,7 +9532,7 @@
         <v>561</v>
       </c>
       <c r="K182" t="n">
-        <v>3.896103896103896</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L182" t="n">
         <v>2031.3</v>
@@ -9561,7 +9583,7 @@
         <v>565</v>
       </c>
       <c r="K183" t="n">
-        <v>20.54794520547945</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L183" t="n">
         <v>2031.9</v>
@@ -9612,7 +9634,7 @@
         <v>566</v>
       </c>
       <c r="K184" t="n">
-        <v>14.28571428571428</v>
+        <v>-6.25</v>
       </c>
       <c r="L184" t="n">
         <v>2032.8</v>
@@ -9663,7 +9685,7 @@
         <v>568</v>
       </c>
       <c r="K185" t="n">
-        <v>11.76470588235294</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L185" t="n">
         <v>2032.8</v>
@@ -9714,7 +9736,7 @@
         <v>568</v>
       </c>
       <c r="K186" t="n">
-        <v>22.58064516129032</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L186" t="n">
         <v>2033.5</v>
@@ -9765,7 +9787,7 @@
         <v>570</v>
       </c>
       <c r="K187" t="n">
-        <v>25</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L187" t="n">
         <v>2033.4</v>
@@ -9816,7 +9838,7 @@
         <v>584</v>
       </c>
       <c r="K188" t="n">
-        <v>35.13513513513514</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="L188" t="n">
         <v>2034.7</v>
@@ -9867,7 +9889,7 @@
         <v>597</v>
       </c>
       <c r="K189" t="n">
-        <v>16.27906976744186</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="L189" t="n">
         <v>2035.2</v>
@@ -9918,7 +9940,7 @@
         <v>598</v>
       </c>
       <c r="K190" t="n">
-        <v>14.28571428571428</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L190" t="n">
         <v>2036.1</v>
@@ -9969,7 +9991,7 @@
         <v>601</v>
       </c>
       <c r="K191" t="n">
-        <v>12.94117647058824</v>
+        <v>15</v>
       </c>
       <c r="L191" t="n">
         <v>2036.8</v>
@@ -10020,7 +10042,7 @@
         <v>603</v>
       </c>
       <c r="K192" t="n">
-        <v>9.302325581395349</v>
+        <v>0</v>
       </c>
       <c r="L192" t="n">
         <v>2037.2</v>
@@ -10071,7 +10093,7 @@
         <v>605</v>
       </c>
       <c r="K193" t="n">
-        <v>9.302325581395349</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L193" t="n">
         <v>2037.4</v>
@@ -10122,7 +10144,7 @@
         <v>605</v>
       </c>
       <c r="K194" t="n">
-        <v>14.63414634146341</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L194" t="n">
         <v>2037.7</v>
@@ -10173,7 +10195,7 @@
         <v>605</v>
       </c>
       <c r="K195" t="n">
-        <v>1.408450704225352</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L195" t="n">
         <v>2037.8</v>
@@ -10224,7 +10246,7 @@
         <v>605</v>
       </c>
       <c r="K196" t="n">
-        <v>12.5</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L196" t="n">
         <v>2037.9</v>
@@ -10275,7 +10297,7 @@
         <v>612</v>
       </c>
       <c r="K197" t="n">
-        <v>8.196721311475409</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L197" t="n">
         <v>2038.5</v>
@@ -10326,7 +10348,7 @@
         <v>618</v>
       </c>
       <c r="K198" t="n">
-        <v>-1.492537313432836</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L198" t="n">
         <v>2037.1</v>
@@ -10377,7 +10399,7 @@
         <v>619</v>
       </c>
       <c r="K199" t="n">
-        <v>4.761904761904762</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L199" t="n">
         <v>2036.9</v>
@@ -10428,7 +10450,7 @@
         <v>620</v>
       </c>
       <c r="K200" t="n">
-        <v>11.47540983606557</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L200" t="n">
         <v>2036.7</v>
@@ -10479,7 +10501,7 @@
         <v>627</v>
       </c>
       <c r="K201" t="n">
-        <v>22.38805970149254</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L201" t="n">
         <v>2037.5</v>
@@ -10530,7 +10552,7 @@
         <v>632</v>
       </c>
       <c r="K202" t="n">
-        <v>12.67605633802817</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L202" t="n">
         <v>2038</v>
@@ -10581,7 +10603,7 @@
         <v>638</v>
       </c>
       <c r="K203" t="n">
-        <v>15.06849315068493</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L203" t="n">
         <v>2038.9</v>
@@ -10632,7 +10654,7 @@
         <v>642</v>
       </c>
       <c r="K204" t="n">
-        <v>21.05263157894737</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="L204" t="n">
         <v>2040.2</v>
@@ -10683,7 +10705,7 @@
         <v>643</v>
       </c>
       <c r="K205" t="n">
-        <v>17.33333333333334</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="L205" t="n">
         <v>2041.4</v>
@@ -10734,7 +10756,7 @@
         <v>643</v>
       </c>
       <c r="K206" t="n">
-        <v>17.33333333333334</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L206" t="n">
         <v>2042.6</v>
@@ -10785,7 +10807,7 @@
         <v>643</v>
       </c>
       <c r="K207" t="n">
-        <v>15.06849315068493</v>
+        <v>44</v>
       </c>
       <c r="L207" t="n">
         <v>2043.1</v>
@@ -10836,7 +10858,7 @@
         <v>645</v>
       </c>
       <c r="K208" t="n">
-        <v>-1.639344262295082</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L208" t="n">
         <v>2044.4</v>
@@ -10887,7 +10909,7 @@
         <v>647</v>
       </c>
       <c r="K209" t="n">
-        <v>28</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L209" t="n">
         <v>2046</v>
@@ -10938,7 +10960,7 @@
         <v>649</v>
       </c>
       <c r="K210" t="n">
-        <v>21.56862745098039</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L210" t="n">
         <v>2047.3</v>
@@ -10989,7 +11011,7 @@
         <v>649</v>
       </c>
       <c r="K211" t="n">
-        <v>29.16666666666667</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L211" t="n">
         <v>2047.9</v>
@@ -11040,7 +11062,7 @@
         <v>653</v>
       </c>
       <c r="K212" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L212" t="n">
         <v>2049.4</v>
@@ -11091,7 +11113,7 @@
         <v>653</v>
       </c>
       <c r="K213" t="n">
-        <v>37.5</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L213" t="n">
         <v>2050.3</v>
@@ -11142,7 +11164,7 @@
         <v>653</v>
       </c>
       <c r="K214" t="n">
-        <v>37.5</v>
+        <v>60</v>
       </c>
       <c r="L214" t="n">
         <v>2050.8</v>
@@ -11193,7 +11215,7 @@
         <v>663</v>
       </c>
       <c r="K215" t="n">
-        <v>13.79310344827586</v>
+        <v>-20</v>
       </c>
       <c r="L215" t="n">
         <v>2050.4</v>
@@ -11244,7 +11266,7 @@
         <v>664</v>
       </c>
       <c r="K216" t="n">
-        <v>15.25423728813559</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L216" t="n">
         <v>2050.1</v>
@@ -11295,7 +11317,7 @@
         <v>664</v>
       </c>
       <c r="K217" t="n">
-        <v>3.846153846153846</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L217" t="n">
         <v>2049.8</v>
@@ -11346,7 +11368,7 @@
         <v>665</v>
       </c>
       <c r="K218" t="n">
-        <v>19.14893617021277</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L218" t="n">
         <v>2049.4</v>
@@ -11397,7 +11419,7 @@
         <v>665</v>
       </c>
       <c r="K219" t="n">
-        <v>21.73913043478261</v>
+        <v>-25</v>
       </c>
       <c r="L219" t="n">
         <v>2048.8</v>
@@ -11448,7 +11470,7 @@
         <v>665</v>
       </c>
       <c r="K220" t="n">
-        <v>20</v>
+        <v>-25</v>
       </c>
       <c r="L220" t="n">
         <v>2048.4</v>
@@ -11499,7 +11521,7 @@
         <v>668</v>
       </c>
       <c r="K221" t="n">
-        <v>-2.439024390243902</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L221" t="n">
         <v>2047.7</v>
@@ -11550,7 +11572,7 @@
         <v>673</v>
       </c>
       <c r="K222" t="n">
-        <v>21.95121951219512</v>
+        <v>-30</v>
       </c>
       <c r="L222" t="n">
         <v>2047.1</v>
@@ -11601,7 +11623,7 @@
         <v>677</v>
       </c>
       <c r="K223" t="n">
-        <v>17.94871794871795</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L223" t="n">
         <v>2046.9</v>
@@ -11652,7 +11674,7 @@
         <v>686</v>
       </c>
       <c r="K224" t="n">
-        <v>-13.63636363636363</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L224" t="n">
         <v>2045.8</v>
@@ -11703,7 +11725,7 @@
         <v>686</v>
       </c>
       <c r="K225" t="n">
-        <v>-11.62790697674419</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L225" t="n">
         <v>2045.7</v>
@@ -11754,7 +11776,7 @@
         <v>686</v>
       </c>
       <c r="K226" t="n">
-        <v>-11.62790697674419</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L226" t="n">
         <v>2045.5</v>
@@ -11805,7 +11827,7 @@
         <v>691</v>
       </c>
       <c r="K227" t="n">
-        <v>0</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L227" t="n">
         <v>2045.8</v>
@@ -11856,7 +11878,7 @@
         <v>694</v>
       </c>
       <c r="K228" t="n">
-        <v>-10.20408163265306</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L228" t="n">
         <v>2045.7</v>
@@ -11907,7 +11929,7 @@
         <v>700</v>
       </c>
       <c r="K229" t="n">
-        <v>-24.52830188679245</v>
+        <v>-20</v>
       </c>
       <c r="L229" t="n">
         <v>2045</v>
@@ -11958,7 +11980,7 @@
         <v>700</v>
       </c>
       <c r="K230" t="n">
-        <v>-21.56862745098039</v>
+        <v>-12.5</v>
       </c>
       <c r="L230" t="n">
         <v>2044.3</v>
@@ -12009,7 +12031,7 @@
         <v>703</v>
       </c>
       <c r="K231" t="n">
-        <v>-25.92592592592592</v>
+        <v>-40</v>
       </c>
       <c r="L231" t="n">
         <v>2043.6</v>
@@ -12060,7 +12082,7 @@
         <v>706</v>
       </c>
       <c r="K232" t="n">
-        <v>-28.30188679245283</v>
+        <v>-44.82758620689656</v>
       </c>
       <c r="L232" t="n">
         <v>2042.7</v>
@@ -12111,7 +12133,7 @@
         <v>708</v>
       </c>
       <c r="K233" t="n">
-        <v>-30.90909090909091</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L233" t="n">
         <v>2041.2</v>
@@ -12162,7 +12184,7 @@
         <v>713</v>
       </c>
       <c r="K234" t="n">
-        <v>-36.66666666666666</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L234" t="n">
         <v>2040.1</v>
@@ -12213,7 +12235,7 @@
         <v>713</v>
       </c>
       <c r="K235" t="n">
-        <v>-24</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L235" t="n">
         <v>2039</v>
@@ -12264,7 +12286,7 @@
         <v>714</v>
       </c>
       <c r="K236" t="n">
-        <v>-28</v>
+        <v>-73.91304347826086</v>
       </c>
       <c r="L236" t="n">
         <v>2037.8</v>
@@ -12315,7 +12337,7 @@
         <v>719</v>
       </c>
       <c r="K237" t="n">
-        <v>-16.36363636363636</v>
+        <v>-36</v>
       </c>
       <c r="L237" t="n">
         <v>2036.6</v>
@@ -12366,7 +12388,7 @@
         <v>731</v>
       </c>
       <c r="K238" t="n">
-        <v>-33.33333333333333</v>
+        <v>-48.38709677419355</v>
       </c>
       <c r="L238" t="n">
         <v>2034.5</v>
@@ -12417,7 +12439,7 @@
         <v>734</v>
       </c>
       <c r="K239" t="n">
-        <v>-27.53623188405797</v>
+        <v>-35.29411764705883</v>
       </c>
       <c r="L239" t="n">
         <v>2033.3</v>
@@ -12468,7 +12490,7 @@
         <v>735</v>
       </c>
       <c r="K240" t="n">
-        <v>-28.57142857142857</v>
+        <v>-31.25</v>
       </c>
       <c r="L240" t="n">
         <v>2032</v>
@@ -12519,7 +12541,7 @@
         <v>739</v>
       </c>
       <c r="K241" t="n">
-        <v>-29.57746478873239</v>
+        <v>-51.51515151515152</v>
       </c>
       <c r="L241" t="n">
         <v>2030.6</v>
@@ -12570,7 +12592,7 @@
         <v>740</v>
       </c>
       <c r="K242" t="n">
-        <v>-37.3134328358209</v>
+        <v>-43.75</v>
       </c>
       <c r="L242" t="n">
         <v>2029</v>
@@ -12621,7 +12643,7 @@
         <v>745</v>
       </c>
       <c r="K243" t="n">
-        <v>-35.29411764705883</v>
+        <v>-12.5</v>
       </c>
       <c r="L243" t="n">
         <v>2028.1</v>
@@ -12672,7 +12694,7 @@
         <v>749</v>
       </c>
       <c r="K244" t="n">
-        <v>-30.15873015873016</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L244" t="n">
         <v>2027.3</v>
@@ -12723,7 +12745,7 @@
         <v>752</v>
       </c>
       <c r="K245" t="n">
-        <v>-24.24242424242424</v>
+        <v>-10.52631578947368</v>
       </c>
       <c r="L245" t="n">
         <v>2026.8</v>
@@ -12774,7 +12796,7 @@
         <v>752</v>
       </c>
       <c r="K246" t="n">
-        <v>-24.24242424242424</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L246" t="n">
         <v>2026.4</v>
@@ -12825,7 +12847,7 @@
         <v>756</v>
       </c>
       <c r="K247" t="n">
-        <v>-26.15384615384616</v>
+        <v>28</v>
       </c>
       <c r="L247" t="n">
         <v>2025.9</v>
@@ -12876,7 +12898,7 @@
         <v>760</v>
       </c>
       <c r="K248" t="n">
-        <v>-15.15151515151515</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L248" t="n">
         <v>2027</v>
@@ -12927,7 +12949,7 @@
         <v>763</v>
       </c>
       <c r="K249" t="n">
-        <v>-11.11111111111111</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L249" t="n">
         <v>2027.5</v>
@@ -12978,7 +13000,7 @@
         <v>768</v>
       </c>
       <c r="K250" t="n">
-        <v>-2.941176470588235</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="L250" t="n">
         <v>2028.6</v>
@@ -13029,7 +13051,7 @@
         <v>775</v>
       </c>
       <c r="K251" t="n">
-        <v>-8.333333333333332</v>
+        <v>20</v>
       </c>
       <c r="L251" t="n">
         <v>2029.4</v>
@@ -13080,7 +13102,7 @@
         <v>784</v>
       </c>
       <c r="K252" t="n">
-        <v>0</v>
+        <v>28.2051282051282</v>
       </c>
       <c r="L252" t="n">
         <v>2031</v>
@@ -13131,7 +13153,7 @@
         <v>789</v>
       </c>
       <c r="K253" t="n">
-        <v>-3.703703703703703</v>
+        <v>25</v>
       </c>
       <c r="L253" t="n">
         <v>2031.6</v>
@@ -13182,7 +13204,7 @@
         <v>789</v>
       </c>
       <c r="K254" t="n">
-        <v>2.631578947368421</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L254" t="n">
         <v>2032.6</v>
@@ -13233,7 +13255,7 @@
         <v>790</v>
       </c>
       <c r="K255" t="n">
-        <v>3.896103896103896</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="L255" t="n">
         <v>2033.4</v>
@@ -13284,7 +13306,7 @@
         <v>790</v>
       </c>
       <c r="K256" t="n">
-        <v>5.263157894736842</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L256" t="n">
         <v>2034.2</v>
@@ -13335,7 +13357,7 @@
         <v>793</v>
       </c>
       <c r="K257" t="n">
-        <v>2.702702702702703</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L257" t="n">
         <v>2034.9</v>
@@ -13386,7 +13408,7 @@
         <v>799</v>
       </c>
       <c r="K258" t="n">
-        <v>11.76470588235294</v>
+        <v>0</v>
       </c>
       <c r="L258" t="n">
         <v>2034.6</v>
@@ -13437,7 +13459,7 @@
         <v>801</v>
       </c>
       <c r="K259" t="n">
-        <v>4.477611940298507</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L259" t="n">
         <v>2034.4</v>
@@ -13488,7 +13510,7 @@
         <v>805</v>
       </c>
       <c r="K260" t="n">
-        <v>0</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L260" t="n">
         <v>2033.3</v>
@@ -13539,7 +13561,7 @@
         <v>810</v>
       </c>
       <c r="K261" t="n">
-        <v>-1.408450704225352</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L261" t="n">
         <v>2032.4</v>
@@ -13590,7 +13612,7 @@
         <v>810</v>
       </c>
       <c r="K262" t="n">
-        <v>-2.857142857142857</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L262" t="n">
         <v>2030.6</v>
@@ -13641,7 +13663,7 @@
         <v>818</v>
       </c>
       <c r="K263" t="n">
-        <v>1.36986301369863</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L263" t="n">
         <v>2030.1</v>
@@ -13692,7 +13714,7 @@
         <v>824</v>
       </c>
       <c r="K264" t="n">
-        <v>-1.333333333333333</v>
+        <v>-35.29411764705883</v>
       </c>
       <c r="L264" t="n">
         <v>2029</v>
@@ -13743,7 +13765,7 @@
         <v>825</v>
       </c>
       <c r="K265" t="n">
-        <v>-4.10958904109589</v>
+        <v>-31.42857142857143</v>
       </c>
       <c r="L265" t="n">
         <v>2027.9</v>
@@ -13794,7 +13816,7 @@
         <v>828</v>
       </c>
       <c r="K266" t="n">
-        <v>0</v>
+        <v>-31.42857142857143</v>
       </c>
       <c r="L266" t="n">
         <v>2027.1</v>
@@ -13845,7 +13867,7 @@
         <v>829</v>
       </c>
       <c r="K267" t="n">
-        <v>-4.10958904109589</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L267" t="n">
         <v>2026.1</v>
@@ -13896,7 +13918,7 @@
         <v>830</v>
       </c>
       <c r="K268" t="n">
-        <v>-11.42857142857143</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L268" t="n">
         <v>2025.6</v>
@@ -13947,7 +13969,7 @@
         <v>831</v>
       </c>
       <c r="K269" t="n">
-        <v>-8.823529411764707</v>
+        <v>0</v>
       </c>
       <c r="L269" t="n">
         <v>2025.2</v>
@@ -13998,7 +14020,7 @@
         <v>839</v>
       </c>
       <c r="K270" t="n">
-        <v>-4.225352112676056</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="L270" t="n">
         <v>2026</v>
@@ -14049,7 +14071,7 @@
         <v>849</v>
       </c>
       <c r="K271" t="n">
-        <v>-8.108108108108109</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L271" t="n">
         <v>2026.3</v>
@@ -14100,7 +14122,7 @@
         <v>855</v>
       </c>
       <c r="K272" t="n">
-        <v>-12.67605633802817</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L272" t="n">
         <v>2027.2</v>
@@ -14151,7 +14173,7 @@
         <v>855</v>
       </c>
       <c r="K273" t="n">
-        <v>-6.060606060606061</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L273" t="n">
         <v>2027.3</v>
@@ -14202,7 +14224,7 @@
         <v>855</v>
       </c>
       <c r="K274" t="n">
-        <v>-6.060606060606061</v>
+        <v>20</v>
       </c>
       <c r="L274" t="n">
         <v>2028</v>
@@ -14253,7 +14275,7 @@
         <v>855</v>
       </c>
       <c r="K275" t="n">
-        <v>-7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L275" t="n">
         <v>2028.6</v>
@@ -14304,7 +14326,7 @@
         <v>855</v>
       </c>
       <c r="K276" t="n">
-        <v>-7.692307692307693</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L276" t="n">
         <v>2028.9</v>
@@ -14355,7 +14377,7 @@
         <v>855</v>
       </c>
       <c r="K277" t="n">
-        <v>-12.90322580645161</v>
+        <v>12</v>
       </c>
       <c r="L277" t="n">
         <v>2029.1</v>
@@ -14406,7 +14428,7 @@
         <v>859</v>
       </c>
       <c r="K278" t="n">
-        <v>3.333333333333333</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L278" t="n">
         <v>2029.8</v>
@@ -14457,7 +14479,7 @@
         <v>859</v>
       </c>
       <c r="K279" t="n">
-        <v>6.896551724137931</v>
+        <v>0</v>
       </c>
       <c r="L279" t="n">
         <v>2030.6</v>
@@ -14508,7 +14530,7 @@
         <v>863</v>
       </c>
       <c r="K280" t="n">
-        <v>6.896551724137931</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L280" t="n">
         <v>2030.2</v>
@@ -14559,7 +14581,7 @@
         <v>868</v>
       </c>
       <c r="K281" t="n">
-        <v>24.13793103448276</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L281" t="n">
         <v>2031.3</v>
@@ -14610,7 +14632,7 @@
         <v>870</v>
       </c>
       <c r="K282" t="n">
-        <v>26.66666666666667</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L282" t="n">
         <v>2032</v>
@@ -14661,7 +14683,7 @@
         <v>871</v>
       </c>
       <c r="K283" t="n">
-        <v>16.9811320754717</v>
+        <v>50</v>
       </c>
       <c r="L283" t="n">
         <v>2032.8</v>
@@ -14712,7 +14734,7 @@
         <v>872</v>
       </c>
       <c r="K284" t="n">
-        <v>33.33333333333333</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L284" t="n">
         <v>2033.7</v>
@@ -14763,7 +14785,7 @@
         <v>873</v>
       </c>
       <c r="K285" t="n">
-        <v>33.33333333333333</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L285" t="n">
         <v>2034.7</v>
@@ -14814,7 +14836,7 @@
         <v>873</v>
       </c>
       <c r="K286" t="n">
-        <v>28.88888888888889</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L286" t="n">
         <v>2035.7</v>
@@ -14865,7 +14887,7 @@
         <v>873</v>
       </c>
       <c r="K287" t="n">
-        <v>27.27272727272727</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L287" t="n">
         <v>2036.7</v>
@@ -14916,7 +14938,7 @@
         <v>873</v>
       </c>
       <c r="K288" t="n">
-        <v>30.23255813953488</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L288" t="n">
         <v>2037.3</v>
@@ -14967,7 +14989,7 @@
         <v>878</v>
       </c>
       <c r="K289" t="n">
-        <v>40.42553191489361</v>
+        <v>100</v>
       </c>
       <c r="L289" t="n">
         <v>2038.4</v>
@@ -15018,7 +15040,7 @@
         <v>880</v>
       </c>
       <c r="K290" t="n">
-        <v>31.70731707317073</v>
+        <v>100</v>
       </c>
       <c r="L290" t="n">
         <v>2040.1</v>
@@ -15069,7 +15091,7 @@
         <v>882</v>
       </c>
       <c r="K291" t="n">
-        <v>63.63636363636363</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L291" t="n">
         <v>2041.1</v>
@@ -15120,7 +15142,7 @@
         <v>884</v>
       </c>
       <c r="K292" t="n">
-        <v>58.62068965517241</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L292" t="n">
         <v>2042.1</v>
@@ -15171,7 +15193,7 @@
         <v>887</v>
       </c>
       <c r="K293" t="n">
-        <v>62.5</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L293" t="n">
         <v>2043.3</v>
@@ -15222,7 +15244,7 @@
         <v>892</v>
       </c>
       <c r="K294" t="n">
-        <v>40.54054054054054</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L294" t="n">
         <v>2043.9</v>
@@ -15273,7 +15295,7 @@
         <v>893</v>
       </c>
       <c r="K295" t="n">
-        <v>42.10526315789473</v>
+        <v>30</v>
       </c>
       <c r="L295" t="n">
         <v>2044.5</v>
@@ -15324,7 +15346,7 @@
         <v>894</v>
       </c>
       <c r="K296" t="n">
-        <v>43.58974358974359</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L296" t="n">
         <v>2045.2</v>
@@ -15375,7 +15397,7 @@
         <v>898</v>
       </c>
       <c r="K297" t="n">
-        <v>48.83720930232558</v>
+        <v>44</v>
       </c>
       <c r="L297" t="n">
         <v>2046.3</v>
@@ -15426,7 +15448,7 @@
         <v>901</v>
       </c>
       <c r="K298" t="n">
-        <v>47.61904761904761</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L298" t="n">
         <v>2047.7</v>
@@ -15477,7 +15499,7 @@
         <v>905</v>
       </c>
       <c r="K299" t="n">
-        <v>52.17391304347826</v>
+        <v>44</v>
       </c>
       <c r="L299" t="n">
         <v>2049</v>
@@ -15528,7 +15550,7 @@
         <v>910</v>
       </c>
       <c r="K300" t="n">
-        <v>70.21276595744681</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="L300" t="n">
         <v>2050.6</v>
@@ -15579,7 +15601,7 @@
         <v>925</v>
       </c>
       <c r="K301" t="n">
-        <v>75.43859649122807</v>
+        <v>75.60975609756098</v>
       </c>
       <c r="L301" t="n">
         <v>2053.9</v>
@@ -15630,7 +15652,7 @@
         <v>925</v>
       </c>
       <c r="K302" t="n">
-        <v>74.54545454545455</v>
+        <v>73.68421052631578</v>
       </c>
       <c r="L302" t="n">
         <v>2057</v>
@@ -15681,7 +15703,7 @@
         <v>926</v>
       </c>
       <c r="K303" t="n">
-        <v>70.90909090909091</v>
+        <v>94.11764705882352</v>
       </c>
       <c r="L303" t="n">
         <v>2059.7</v>
@@ -15732,7 +15754,7 @@
         <v>927</v>
       </c>
       <c r="K304" t="n">
-        <v>70.90909090909091</v>
+        <v>94.11764705882352</v>
       </c>
       <c r="L304" t="n">
         <v>2063</v>
@@ -15783,7 +15805,7 @@
         <v>929</v>
       </c>
       <c r="K305" t="n">
-        <v>64.28571428571429</v>
+        <v>82.85714285714286</v>
       </c>
       <c r="L305" t="n">
         <v>2066</v>
@@ -15834,7 +15856,7 @@
         <v>930</v>
       </c>
       <c r="K306" t="n">
-        <v>61.40350877192983</v>
+        <v>75</v>
       </c>
       <c r="L306" t="n">
         <v>2068.8</v>
@@ -15885,7 +15907,7 @@
         <v>933</v>
       </c>
       <c r="K307" t="n">
-        <v>63.33333333333333</v>
+        <v>75</v>
       </c>
       <c r="L307" t="n">
         <v>2071.5</v>
@@ -15936,7 +15958,7 @@
         <v>935</v>
       </c>
       <c r="K308" t="n">
-        <v>64.51612903225806</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L308" t="n">
         <v>2074.1</v>
@@ -15987,7 +16009,7 @@
         <v>940</v>
       </c>
       <c r="K309" t="n">
-        <v>48.38709677419355</v>
+        <v>40</v>
       </c>
       <c r="L309" t="n">
         <v>2075.8</v>
@@ -16038,7 +16060,7 @@
         <v>942</v>
       </c>
       <c r="K310" t="n">
-        <v>41.93548387096774</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L310" t="n">
         <v>2076.8</v>
@@ -16089,7 +16111,7 @@
         <v>944</v>
       </c>
       <c r="K311" t="n">
-        <v>48.38709677419355</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L311" t="n">
         <v>2076.5</v>
@@ -16140,7 +16162,7 @@
         <v>954</v>
       </c>
       <c r="K312" t="n">
-        <v>54.28571428571428</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L312" t="n">
         <v>2077.2</v>
@@ -16191,7 +16213,7 @@
         <v>956</v>
       </c>
       <c r="K313" t="n">
-        <v>53.62318840579711</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L313" t="n">
         <v>2078.2</v>
@@ -16242,7 +16264,7 @@
         <v>966</v>
       </c>
       <c r="K314" t="n">
-        <v>43.24324324324324</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L314" t="n">
         <v>2078.1</v>
@@ -16293,7 +16315,7 @@
         <v>974</v>
       </c>
       <c r="K315" t="n">
-        <v>48.14814814814815</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="L315" t="n">
         <v>2079</v>
@@ -16344,7 +16366,7 @@
         <v>977</v>
       </c>
       <c r="K316" t="n">
-        <v>42.16867469879519</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L316" t="n">
         <v>2079.7</v>
@@ -16395,7 +16417,7 @@
         <v>980</v>
       </c>
       <c r="K317" t="n">
-        <v>41.46341463414634</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L317" t="n">
         <v>2080.4</v>
@@ -16446,7 +16468,7 @@
         <v>980</v>
       </c>
       <c r="K318" t="n">
-        <v>39.24050632911392</v>
+        <v>25</v>
       </c>
       <c r="L318" t="n">
         <v>2080.9</v>
@@ -16497,7 +16519,7 @@
         <v>980</v>
       </c>
       <c r="K319" t="n">
-        <v>36</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="L319" t="n">
         <v>2081.9</v>
@@ -16548,7 +16570,7 @@
         <v>981</v>
       </c>
       <c r="K320" t="n">
-        <v>29.57746478873239</v>
+        <v>24.32432432432433</v>
       </c>
       <c r="L320" t="n">
         <v>2083</v>
@@ -16599,7 +16621,7 @@
         <v>984</v>
       </c>
       <c r="K321" t="n">
-        <v>5.084745762711865</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L321" t="n">
         <v>2083.6</v>
@@ -16650,7 +16672,7 @@
         <v>984</v>
       </c>
       <c r="K322" t="n">
-        <v>5.084745762711865</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L322" t="n">
         <v>2083.2</v>
@@ -16701,7 +16723,7 @@
         <v>985</v>
       </c>
       <c r="K323" t="n">
-        <v>8.474576271186439</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L323" t="n">
         <v>2082.7</v>
@@ -16752,7 +16774,7 @@
         <v>985</v>
       </c>
       <c r="K324" t="n">
-        <v>6.896551724137931</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L324" t="n">
         <v>2083.2</v>
@@ -16803,7 +16825,7 @@
         <v>986</v>
       </c>
       <c r="K325" t="n">
-        <v>12.28070175438596</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L325" t="n">
         <v>2083</v>
@@ -16854,7 +16876,7 @@
         <v>991</v>
       </c>
       <c r="K326" t="n">
-        <v>21.31147540983606</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L326" t="n">
         <v>2083.6</v>
@@ -16905,7 +16927,7 @@
         <v>997</v>
       </c>
       <c r="K327" t="n">
-        <v>6.25</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L327" t="n">
         <v>2083.3</v>
@@ -16956,7 +16978,7 @@
         <v>999</v>
       </c>
       <c r="K328" t="n">
-        <v>6.25</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L328" t="n">
         <v>2083.2</v>
@@ -17007,7 +17029,7 @@
         <v>1001</v>
       </c>
       <c r="K329" t="n">
-        <v>18.0327868852459</v>
+        <v>10</v>
       </c>
       <c r="L329" t="n">
         <v>2083.3</v>
@@ -17058,7 +17080,7 @@
         <v>1002</v>
       </c>
       <c r="K330" t="n">
-        <v>23.33333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L330" t="n">
         <v>2083.6</v>
@@ -17109,7 +17131,7 @@
         <v>1004</v>
       </c>
       <c r="K331" t="n">
-        <v>23.33333333333333</v>
+        <v>40</v>
       </c>
       <c r="L331" t="n">
         <v>2084.4</v>
@@ -17160,7 +17182,7 @@
         <v>1008</v>
       </c>
       <c r="K332" t="n">
-        <v>14.81481481481481</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L332" t="n">
         <v>2085.6</v>
@@ -17211,7 +17233,7 @@
         <v>1008</v>
       </c>
       <c r="K333" t="n">
-        <v>11.53846153846154</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L333" t="n">
         <v>2086.7</v>
@@ -17262,7 +17284,7 @@
         <v>1009</v>
       </c>
       <c r="K334" t="n">
-        <v>34.88372093023256</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L334" t="n">
         <v>2087.7</v>
@@ -17313,7 +17335,7 @@
         <v>1015</v>
       </c>
       <c r="K335" t="n">
-        <v>31.70731707317073</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L335" t="n">
         <v>2089.2</v>
@@ -17364,7 +17386,7 @@
         <v>1021</v>
       </c>
       <c r="K336" t="n">
-        <v>22.72727272727273</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L336" t="n">
         <v>2089.6</v>
@@ -17415,7 +17437,7 @@
         <v>1025</v>
       </c>
       <c r="K337" t="n">
-        <v>6.666666666666667</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L337" t="n">
         <v>2090.2</v>
@@ -17466,7 +17488,7 @@
         <v>1028</v>
       </c>
       <c r="K338" t="n">
-        <v>0</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L338" t="n">
         <v>2090.3</v>
@@ -17517,7 +17539,7 @@
         <v>1028</v>
       </c>
       <c r="K339" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L339" t="n">
         <v>2090.2</v>
@@ -17568,7 +17590,7 @@
         <v>1033</v>
       </c>
       <c r="K340" t="n">
-        <v>-7.692307692307693</v>
+        <v>-31.03448275862069</v>
       </c>
       <c r="L340" t="n">
         <v>2089.5</v>
@@ -17619,7 +17641,7 @@
         <v>1034</v>
       </c>
       <c r="K341" t="n">
-        <v>0</v>
+        <v>-46.15384615384615</v>
       </c>
       <c r="L341" t="n">
         <v>2088.7</v>
@@ -17670,7 +17692,7 @@
         <v>1036</v>
       </c>
       <c r="K342" t="n">
-        <v>3.846153846153846</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L342" t="n">
         <v>2087.7</v>
@@ -17721,7 +17743,7 @@
         <v>1037</v>
       </c>
       <c r="K343" t="n">
-        <v>0</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L343" t="n">
         <v>2086.6</v>
@@ -17772,7 +17794,7 @@
         <v>1038</v>
       </c>
       <c r="K344" t="n">
-        <v>-1.886792452830189</v>
+        <v>-73.91304347826086</v>
       </c>
       <c r="L344" t="n">
         <v>2085.5</v>
@@ -17823,7 +17845,7 @@
         <v>1039</v>
       </c>
       <c r="K345" t="n">
-        <v>-1.886792452830189</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L345" t="n">
         <v>2083.9</v>
@@ -17874,7 +17896,7 @@
         <v>1041</v>
       </c>
       <c r="K346" t="n">
-        <v>-16</v>
+        <v>-50</v>
       </c>
       <c r="L346" t="n">
         <v>2082.7</v>
@@ -17925,7 +17947,7 @@
         <v>1041</v>
       </c>
       <c r="K347" t="n">
-        <v>-4.545454545454546</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L347" t="n">
         <v>2081.9</v>
@@ -17976,7 +17998,7 @@
         <v>1041</v>
       </c>
       <c r="K348" t="n">
-        <v>-9.523809523809524</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L348" t="n">
         <v>2081.4</v>
@@ -18027,7 +18049,7 @@
         <v>1048</v>
       </c>
       <c r="K349" t="n">
-        <v>2.127659574468085</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L349" t="n">
         <v>2081.6</v>
@@ -18078,7 +18100,7 @@
         <v>1055</v>
       </c>
       <c r="K350" t="n">
-        <v>-13.20754716981132</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L350" t="n">
         <v>2081.6</v>
@@ -18129,7 +18151,7 @@
         <v>1055</v>
       </c>
       <c r="K351" t="n">
-        <v>-17.64705882352941</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L351" t="n">
         <v>2081.5</v>
@@ -18180,7 +18202,7 @@
         <v>1063</v>
       </c>
       <c r="K352" t="n">
-        <v>-9.090909090909092</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L352" t="n">
         <v>2082</v>
@@ -18231,7 +18253,7 @@
         <v>1073</v>
       </c>
       <c r="K353" t="n">
-        <v>-23.07692307692308</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L353" t="n">
         <v>2081.6</v>
@@ -18282,7 +18304,7 @@
         <v>1073</v>
       </c>
       <c r="K354" t="n">
-        <v>-21.875</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L354" t="n">
         <v>2081.3</v>
@@ -18333,7 +18355,7 @@
         <v>1073</v>
       </c>
       <c r="K355" t="n">
-        <v>-34.48275862068966</v>
+        <v>-6.25</v>
       </c>
       <c r="L355" t="n">
         <v>2080.9</v>
@@ -18384,7 +18406,7 @@
         <v>1080</v>
       </c>
       <c r="K356" t="n">
-        <v>-11.86440677966102</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L356" t="n">
         <v>2081.4</v>
@@ -18435,7 +18457,7 @@
         <v>1084</v>
       </c>
       <c r="K357" t="n">
-        <v>1.694915254237288</v>
+        <v>20.93023255813954</v>
       </c>
       <c r="L357" t="n">
         <v>2082.3</v>
@@ -18486,7 +18508,7 @@
         <v>1088</v>
       </c>
       <c r="K358" t="n">
-        <v>13.33333333333333</v>
+        <v>15</v>
       </c>
       <c r="L358" t="n">
         <v>2083.6</v>
@@ -18537,7 +18559,7 @@
         <v>1093</v>
       </c>
       <c r="K359" t="n">
-        <v>20</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L359" t="n">
         <v>2084.7</v>
@@ -18588,7 +18610,7 @@
         <v>1099</v>
       </c>
       <c r="K360" t="n">
-        <v>18.18181818181818</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L360" t="n">
         <v>2085.9</v>
@@ -18639,7 +18661,7 @@
         <v>1101</v>
       </c>
       <c r="K361" t="n">
-        <v>13.43283582089552</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L361" t="n">
         <v>2086.9</v>
@@ -18690,7 +18712,7 @@
         <v>1101</v>
       </c>
       <c r="K362" t="n">
-        <v>10.76923076923077</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L362" t="n">
         <v>2087.1</v>
@@ -18741,7 +18763,7 @@
         <v>1101</v>
       </c>
       <c r="K363" t="n">
-        <v>12.5</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L363" t="n">
         <v>2088.3</v>
@@ -18792,7 +18814,7 @@
         <v>1103</v>
       </c>
       <c r="K364" t="n">
-        <v>16.92307692307692</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L364" t="n">
         <v>2089.7</v>
@@ -18843,7 +18865,7 @@
         <v>1107</v>
       </c>
       <c r="K365" t="n">
-        <v>8.823529411764707</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L365" t="n">
         <v>2090.7</v>
@@ -18894,7 +18916,7 @@
         <v>1109</v>
       </c>
       <c r="K366" t="n">
-        <v>14.70588235294118</v>
+        <v>4</v>
       </c>
       <c r="L366" t="n">
         <v>2091.2</v>
@@ -18945,7 +18967,7 @@
         <v>1110</v>
       </c>
       <c r="K367" t="n">
-        <v>15.94202898550724</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L367" t="n">
         <v>2091.4</v>
@@ -18996,7 +19018,7 @@
         <v>1117</v>
       </c>
       <c r="K368" t="n">
-        <v>5.263157894736842</v>
+        <v>-58.33333333333334</v>
       </c>
       <c r="L368" t="n">
         <v>2090.5</v>
@@ -19047,7 +19069,7 @@
         <v>1120</v>
       </c>
       <c r="K369" t="n">
-        <v>0</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L369" t="n">
         <v>2089.4</v>
@@ -19098,7 +19120,7 @@
         <v>1121</v>
       </c>
       <c r="K370" t="n">
-        <v>9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L370" t="n">
         <v>2088.8</v>
@@ -19149,7 +19171,7 @@
         <v>1124</v>
       </c>
       <c r="K371" t="n">
-        <v>4.347826086956522</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L371" t="n">
         <v>2088.1</v>
@@ -19200,7 +19222,7 @@
         <v>1126</v>
       </c>
       <c r="K372" t="n">
-        <v>-11.11111111111111</v>
+        <v>-36</v>
       </c>
       <c r="L372" t="n">
         <v>2087.2</v>
@@ -19251,7 +19273,7 @@
         <v>1126</v>
       </c>
       <c r="K373" t="n">
-        <v>5.660377358490567</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L373" t="n">
         <v>2086.3</v>
@@ -19302,7 +19324,7 @@
         <v>1128</v>
       </c>
       <c r="K374" t="n">
-        <v>1.818181818181818</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L374" t="n">
         <v>2085</v>
@@ -19353,7 +19375,7 @@
         <v>1130</v>
       </c>
       <c r="K375" t="n">
-        <v>5.263157894736842</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L375" t="n">
         <v>2084.3</v>
@@ -19404,7 +19426,7 @@
         <v>1131</v>
       </c>
       <c r="K376" t="n">
-        <v>-5.88235294117647</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L376" t="n">
         <v>2083.5</v>
@@ -19455,7 +19477,7 @@
         <v>1134</v>
       </c>
       <c r="K377" t="n">
-        <v>-20</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L377" t="n">
         <v>2082.3</v>
@@ -19506,7 +19528,7 @@
         <v>1134</v>
       </c>
       <c r="K378" t="n">
-        <v>-30.43478260869566</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L378" t="n">
         <v>2081.8</v>
@@ -19557,7 +19579,7 @@
         <v>1147</v>
       </c>
       <c r="K379" t="n">
-        <v>-11.11111111111111</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L379" t="n">
         <v>2082.3</v>
@@ -19608,7 +19630,7 @@
         <v>1155</v>
       </c>
       <c r="K380" t="n">
-        <v>-14.28571428571428</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L380" t="n">
         <v>2082.1</v>
@@ -19659,7 +19681,7 @@
         <v>1156</v>
       </c>
       <c r="K381" t="n">
-        <v>-9.090909090909092</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L381" t="n">
         <v>2082.3</v>
@@ -19710,7 +19732,7 @@
         <v>1161</v>
       </c>
       <c r="K382" t="n">
-        <v>0</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L382" t="n">
         <v>2083.2</v>
@@ -19761,7 +19783,7 @@
         <v>1164</v>
       </c>
       <c r="K383" t="n">
-        <v>-4.761904761904762</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L383" t="n">
         <v>2083.8</v>
@@ -19812,7 +19834,7 @@
         <v>1169</v>
       </c>
       <c r="K384" t="n">
-        <v>0</v>
+        <v>28.2051282051282</v>
       </c>
       <c r="L384" t="n">
         <v>2085.1</v>
@@ -19863,7 +19885,7 @@
         <v>1178</v>
       </c>
       <c r="K385" t="n">
-        <v>-7.042253521126761</v>
+        <v>2.127659574468085</v>
       </c>
       <c r="L385" t="n">
         <v>2085.3</v>
@@ -19914,7 +19936,7 @@
         <v>1186</v>
       </c>
       <c r="K386" t="n">
-        <v>1.298701298701299</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L386" t="n">
         <v>2086.2</v>
@@ -19965,7 +19987,7 @@
         <v>1189</v>
       </c>
       <c r="K387" t="n">
-        <v>-3.79746835443038</v>
+        <v>16.36363636363636</v>
       </c>
       <c r="L387" t="n">
         <v>2087.1</v>
@@ -20016,7 +20038,7 @@
         <v>1194</v>
       </c>
       <c r="K388" t="n">
-        <v>-1.298701298701299</v>
+        <v>-19.14893617021277</v>
       </c>
       <c r="L388" t="n">
         <v>2087.5</v>
@@ -20067,7 +20089,7 @@
         <v>1196</v>
       </c>
       <c r="K389" t="n">
-        <v>-2.631578947368421</v>
+        <v>2.439024390243902</v>
       </c>
       <c r="L389" t="n">
         <v>2086.8</v>
@@ -20118,7 +20140,7 @@
         <v>1197</v>
       </c>
       <c r="K390" t="n">
-        <v>-2.631578947368421</v>
+        <v>-2.439024390243902</v>
       </c>
       <c r="L390" t="n">
         <v>2086.8</v>
@@ -20169,7 +20191,7 @@
         <v>1199</v>
       </c>
       <c r="K391" t="n">
-        <v>-1.333333333333333</v>
+        <v>-21.05263157894737</v>
       </c>
       <c r="L391" t="n">
         <v>2086.5</v>
@@ -20220,7 +20242,7 @@
         <v>1201</v>
       </c>
       <c r="K392" t="n">
-        <v>-1.333333333333333</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L392" t="n">
         <v>2085.5</v>
@@ -20271,7 +20293,7 @@
         <v>1206</v>
       </c>
       <c r="K393" t="n">
-        <v>5</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L393" t="n">
         <v>2085.3</v>
@@ -20322,7 +20344,7 @@
         <v>1213</v>
       </c>
       <c r="K394" t="n">
-        <v>15.29411764705882</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L394" t="n">
         <v>2085.3</v>
@@ -20373,7 +20395,7 @@
         <v>1220</v>
       </c>
       <c r="K395" t="n">
-        <v>4.444444444444445</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L395" t="n">
         <v>2085.5</v>
@@ -20424,7 +20446,7 @@
         <v>1222</v>
       </c>
       <c r="K396" t="n">
-        <v>1.098901098901099</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L396" t="n">
         <v>2084.7</v>

--- a/BackTest/2019-10-18 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-18 BackTest QTUM.xlsx
@@ -556,17 +556,13 @@
         <v>1980.25</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1979</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1979</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -595,22 +591,14 @@
         <v>1980.216666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -638,22 +626,14 @@
         <v>1980.183333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -681,22 +661,14 @@
         <v>1980.116666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -730,14 +702,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -771,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -806,22 +766,14 @@
         <v>1979.683333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1976</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -849,22 +801,14 @@
         <v>1979.533333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1976</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -892,22 +836,14 @@
         <v>1979.416666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1978</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -935,22 +871,14 @@
         <v>1979.283333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1975</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -978,22 +906,14 @@
         <v>1979.183333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1975</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1021,22 +941,14 @@
         <v>1979.05</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1974</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1064,22 +976,14 @@
         <v>1978.8</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1973</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1107,22 +1011,14 @@
         <v>1978.55</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1970</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1150,22 +1046,14 @@
         <v>1978.383333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>1970</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1193,22 +1081,14 @@
         <v>1978.15</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>1970</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1236,22 +1116,14 @@
         <v>1977.9</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>1970</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1279,22 +1151,14 @@
         <v>1977.583333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>1965</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1322,22 +1186,14 @@
         <v>1977.166666666667</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>1965</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1365,22 +1221,14 @@
         <v>1976.866666666667</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>1963</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1408,22 +1256,14 @@
         <v>1976.616666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>1970</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1451,22 +1291,14 @@
         <v>1976.4</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>1972</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1494,22 +1326,14 @@
         <v>1976.216666666667</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>1972</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1537,22 +1361,14 @@
         <v>1976.033333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>1972</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1580,22 +1396,14 @@
         <v>1975.766666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>1972</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1431,14 @@
         <v>1975.633333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>1974</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1666,22 +1466,14 @@
         <v>1975.45</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1972</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1709,22 +1501,14 @@
         <v>1975.283333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>1974</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1752,22 +1536,14 @@
         <v>1975.05</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>1970</v>
-      </c>
-      <c r="K33" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1795,22 +1571,14 @@
         <v>1974.783333333333</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>1969</v>
-      </c>
-      <c r="K34" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1838,22 +1606,14 @@
         <v>1974.6</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>1970</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1881,22 +1641,14 @@
         <v>1974.4</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1970</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1924,22 +1676,14 @@
         <v>1974.166666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>1970</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1967,22 +1711,14 @@
         <v>1973.933333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>1970</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2010,22 +1746,14 @@
         <v>1973.816666666667</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>1970</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2053,22 +1781,14 @@
         <v>1973.633333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1970</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2096,22 +1816,14 @@
         <v>1973.55</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1970</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2139,22 +1851,14 @@
         <v>1973.533333333333</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>1973</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2182,22 +1886,14 @@
         <v>1973.633333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>1976</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2225,22 +1921,14 @@
         <v>1973.666666666667</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>1975</v>
-      </c>
-      <c r="K44" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2268,22 +1956,14 @@
         <v>1973.7</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>1976</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2311,22 +1991,14 @@
         <v>1973.633333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1970</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2354,22 +2026,14 @@
         <v>1973.566666666667</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1970</v>
-      </c>
-      <c r="K47" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2397,22 +2061,14 @@
         <v>1973.583333333333</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1975</v>
-      </c>
-      <c r="K48" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2440,22 +2096,14 @@
         <v>1973.533333333333</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1970</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2483,22 +2131,14 @@
         <v>1973.466666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>1970</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2526,22 +2166,14 @@
         <v>1973.516666666667</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1976</v>
-      </c>
-      <c r="K51" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2569,22 +2201,14 @@
         <v>1973.466666666667</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>1971</v>
-      </c>
-      <c r="K52" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2612,22 +2236,14 @@
         <v>1973.45</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>1978</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2655,22 +2271,14 @@
         <v>1973.55</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>1979</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2698,22 +2306,14 @@
         <v>1973.466666666667</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>1982</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2741,22 +2341,14 @@
         <v>1973.583333333333</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>1976</v>
-      </c>
-      <c r="K56" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2784,22 +2376,14 @@
         <v>1973.783333333333</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>1989</v>
-      </c>
-      <c r="K57" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2827,22 +2411,14 @@
         <v>1973.983333333333</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>1988</v>
-      </c>
-      <c r="K58" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2870,22 +2446,14 @@
         <v>1974.25</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>1988</v>
-      </c>
-      <c r="K59" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2913,22 +2481,14 @@
         <v>1974.283333333333</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>1987</v>
-      </c>
-      <c r="K60" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2962,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -3003,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3044,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3085,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3126,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3167,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3208,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3249,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3290,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3331,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3372,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3413,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3454,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3495,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3536,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3577,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3618,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3659,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3700,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3741,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3782,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3823,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3864,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3905,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3946,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3987,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -4028,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4069,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4110,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4151,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4192,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4233,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4274,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4315,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4356,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4397,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4438,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4479,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4520,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4561,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4602,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4643,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4684,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4725,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4766,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4807,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4848,14 +4132,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4889,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4930,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4971,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -5012,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -5053,14 +4307,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5094,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5135,14 +4377,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5176,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5217,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5258,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5299,14 +4517,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5340,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5381,14 +4587,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5422,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5460,19 +4654,13 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>1.029360788276908</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -5501,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -5536,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5571,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -5606,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5641,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -5676,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -5711,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -5746,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5781,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5816,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -6863,13 +6051,17 @@
         <v>2042.933333333333</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K162" t="n">
+        <v>2021</v>
+      </c>
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
@@ -6898,14 +6090,22 @@
         <v>2042.766666666667</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>2027</v>
+      </c>
+      <c r="K163" t="n">
+        <v>2021</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6933,14 +6133,22 @@
         <v>2042.8</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>2019</v>
+      </c>
+      <c r="K164" t="n">
+        <v>2021</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6968,13 +6176,17 @@
         <v>2042.9</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>2023</v>
+      </c>
+      <c r="K165" t="n">
+        <v>2023</v>
+      </c>
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
@@ -7003,14 +6215,22 @@
         <v>2042.883333333333</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>2027</v>
+      </c>
+      <c r="K166" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7038,14 +6258,22 @@
         <v>2042.716666666667</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K167" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7073,14 +6301,22 @@
         <v>2042.533333333333</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K168" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7108,14 +6344,22 @@
         <v>2042.3</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>2025</v>
+      </c>
+      <c r="K169" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7143,14 +6387,22 @@
         <v>2042.033333333333</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K170" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7178,14 +6430,22 @@
         <v>2041.866666666667</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>2027</v>
+      </c>
+      <c r="K171" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7213,14 +6473,22 @@
         <v>2041.583333333333</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>2025</v>
+      </c>
+      <c r="K172" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7248,14 +6516,22 @@
         <v>2041.3</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>2026</v>
+      </c>
+      <c r="K173" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7283,14 +6559,22 @@
         <v>2040.916666666667</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>2028</v>
+      </c>
+      <c r="K174" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7318,14 +6602,22 @@
         <v>2040.666666666667</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K175" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7353,14 +6645,22 @@
         <v>2040.3</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>2035</v>
+      </c>
+      <c r="K176" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7388,14 +6688,22 @@
         <v>2040.083333333333</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>2028</v>
+      </c>
+      <c r="K177" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7423,14 +6731,22 @@
         <v>2039.866666666667</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>2038</v>
+      </c>
+      <c r="K178" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7458,14 +6774,22 @@
         <v>2039.583333333333</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>2038</v>
+      </c>
+      <c r="K179" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7499,8 +6823,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7534,8 +6864,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7569,8 +6905,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7604,8 +6946,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7639,8 +6987,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7674,8 +7028,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7709,8 +7069,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7744,8 +7110,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7779,8 +7151,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7814,8 +7192,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7849,8 +7233,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7884,8 +7274,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7919,8 +7315,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7954,8 +7356,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7989,8 +7397,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8024,8 +7438,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8059,8 +7479,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8094,8 +7520,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8129,8 +7561,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8164,8 +7602,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8199,8 +7643,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8234,8 +7684,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8269,8 +7725,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8304,8 +7766,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8339,8 +7807,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8374,8 +7848,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8409,8 +7889,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8444,8 +7930,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8479,8 +7971,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8514,8 +8012,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8549,8 +8053,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8584,8 +8094,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8619,8 +8135,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8654,8 +8176,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8689,8 +8217,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8724,8 +8258,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8759,8 +8299,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8794,8 +8340,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8829,8 +8381,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8864,8 +8422,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8899,8 +8463,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8934,8 +8504,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8969,8 +8545,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9004,8 +8586,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9039,8 +8627,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9074,8 +8668,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9109,8 +8709,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9144,8 +8750,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9179,8 +8791,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9214,8 +8832,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9249,8 +8873,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9284,8 +8914,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9319,8 +8955,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9354,8 +8996,14 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9389,8 +9037,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9424,8 +9078,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9459,8 +9119,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9494,8 +9160,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9529,8 +9201,14 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9564,8 +9242,14 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9599,8 +9283,14 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9634,8 +9324,14 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9669,8 +9365,14 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9704,8 +9406,14 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9739,8 +9447,14 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9774,8 +9488,14 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9809,8 +9529,14 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9844,8 +9570,14 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9879,8 +9611,14 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9914,8 +9652,14 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9949,8 +9693,14 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9984,8 +9734,14 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10019,8 +9775,14 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10054,8 +9816,14 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10089,8 +9857,14 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10124,8 +9898,14 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10159,8 +9939,14 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10194,8 +9980,14 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10229,8 +10021,14 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10264,8 +10062,14 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10299,8 +10103,14 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10334,8 +10144,14 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10369,8 +10185,14 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10404,8 +10226,14 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10439,8 +10267,14 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10474,8 +10308,14 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10509,8 +10349,14 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10544,8 +10390,14 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10579,8 +10431,14 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10614,8 +10472,14 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10649,8 +10513,14 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10684,8 +10554,14 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10719,8 +10595,14 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10754,8 +10636,14 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10789,8 +10677,14 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10824,8 +10718,14 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10859,8 +10759,14 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10894,8 +10800,14 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10929,8 +10841,14 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10964,8 +10882,14 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10999,8 +10923,14 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11034,8 +10964,14 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11069,8 +11005,14 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11104,8 +11046,14 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11139,8 +11087,14 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11174,8 +11128,14 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11209,8 +11169,14 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11244,8 +11210,14 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11279,8 +11251,14 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11314,8 +11292,14 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11349,8 +11333,14 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11384,8 +11374,14 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11419,8 +11415,14 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11454,8 +11456,14 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11489,8 +11497,14 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11524,8 +11538,14 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11559,8 +11579,14 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11594,8 +11620,14 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11629,8 +11661,14 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11664,8 +11702,14 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11699,8 +11743,14 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11734,8 +11784,14 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11769,8 +11825,14 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11801,13 +11863,19 @@
         <v>0</v>
       </c>
       <c r="I303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M303" t="n">
-        <v>1</v>
+        <v>1.021693030153238</v>
       </c>
     </row>
     <row r="304">
@@ -11836,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
@@ -11871,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
@@ -11906,7 +11974,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
@@ -11941,7 +12009,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
@@ -12046,7 +12114,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
@@ -12186,7 +12254,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>

--- a/BackTest/2019-10-18 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-18 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2167,17 +2167,11 @@
         <v>3196.486657969999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1974</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2210,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2247,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2284,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2321,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2358,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2395,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2432,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2469,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2502,15 +2464,15 @@
         <v>3122.9945094</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1975</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1975</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2539,13 +2501,17 @@
         <v>3152.9945094</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1975</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1975</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -2576,15 +2542,17 @@
         <v>3158.03737374</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>1979</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1975</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2615,17 +2583,15 @@
         <v>3158.03737374</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>1983</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2654,15 +2620,17 @@
         <v>1187.23847374</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>1983</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1983</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -2693,10 +2661,14 @@
         <v>1087.93847374</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1981</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1983</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2733,7 +2705,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1983</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2767,10 +2741,14 @@
         <v>898.8894737399996</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1976</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1983</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2807,7 +2785,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1983</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2844,7 +2824,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1983</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2881,7 +2863,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1983</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2918,7 +2902,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1983</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2955,7 +2941,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1983</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2992,7 +2980,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1983</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3029,7 +3019,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1983</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3066,7 +3058,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1983</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3103,7 +3097,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1983</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3137,10 +3133,14 @@
         <v>-198.7861262600002</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1970</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1983</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3174,10 +3174,14 @@
         <v>-535.7861262600002</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1969</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1983</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3211,10 +3215,14 @@
         <v>-4979.13762626</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1965</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1983</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3248,10 +3256,14 @@
         <v>-4778.30502626</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1964</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1983</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3285,10 +3297,14 @@
         <v>-4613.58209374</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1968</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1983</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3322,10 +3338,14 @@
         <v>-4134.03379167</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1971</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1983</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3359,10 +3379,14 @@
         <v>-4699.88059167</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1973</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1983</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3396,12 +3420,14 @@
         <v>-4419.84009167</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>1970</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1983</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3435,12 +3461,14 @@
         <v>-4489.11509167</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>1974</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1983</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3474,12 +3502,14 @@
         <v>-4057.60499167</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>1972</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1983</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3513,10 +3543,14 @@
         <v>-4217.34189167</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1974</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1983</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3550,12 +3584,14 @@
         <v>-4213.04459167</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>1971</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1983</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3589,12 +3625,14 @@
         <v>-4263.80459167</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>1974</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1983</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3628,12 +3666,14 @@
         <v>-5074.56549167</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>1970</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1983</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3667,12 +3707,14 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>1969</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1983</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3706,12 +3748,14 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>1970</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1983</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3745,12 +3789,14 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>1970</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1983</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3784,12 +3830,14 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>1970</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1983</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3823,12 +3871,14 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>1970</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1983</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3862,12 +3912,14 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>1970</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1983</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3901,12 +3953,14 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>1970</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1983</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3940,12 +3994,14 @@
         <v>-4570.116891670001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>1970</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1983</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3979,12 +4035,14 @@
         <v>-4567.116891670001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>1971</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1983</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4018,12 +4076,14 @@
         <v>-4569.116891670001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>1976</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1983</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4057,12 +4117,12 @@
         <v>-4568.116891670001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1975</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1983</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4096,12 +4156,12 @@
         <v>-7291.229391670001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1976</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1983</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4135,12 +4195,12 @@
         <v>-7291.229391670001</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1970</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1983</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4177,7 +4237,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1983</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4214,7 +4276,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1983</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4251,7 +4315,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1983</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4288,7 +4354,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1983</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4322,12 +4390,14 @@
         <v>-6537.326900540001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>1976</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1983</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4361,12 +4431,14 @@
         <v>-6262.18110054</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>1971</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1983</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4400,12 +4472,14 @@
         <v>-6155.90000054</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>1973</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1983</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4439,12 +4513,12 @@
         <v>-7258.21210054</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1980</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1983</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4478,12 +4552,12 @@
         <v>-6830.542700540001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1976</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1983</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4517,10 +4591,14 @@
         <v>-6825.515048460001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1984</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1983</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4557,7 +4635,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1983</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4594,7 +4674,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1983</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4631,7 +4713,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1983</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4668,7 +4752,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1983</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4705,7 +4791,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1983</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4742,7 +4830,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1983</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4779,7 +4869,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1983</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4816,7 +4908,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1983</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4853,7 +4947,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1983</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4890,7 +4986,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1983</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4927,7 +5025,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1983</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4964,7 +5064,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1983</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5001,7 +5103,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1983</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5038,7 +5142,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1983</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5075,7 +5181,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1983</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5112,7 +5220,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1983</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5149,7 +5259,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1983</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5186,7 +5298,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1983</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5223,7 +5337,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1983</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5260,7 +5376,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1983</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5297,7 +5415,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1983</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5334,7 +5454,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1983</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5371,7 +5493,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1983</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5408,7 +5532,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1983</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5445,7 +5571,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1983</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5482,7 +5610,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1983</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5519,7 +5649,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1983</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5556,7 +5688,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1983</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5593,7 +5727,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1983</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5630,7 +5766,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1983</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5667,7 +5805,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1983</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5704,7 +5844,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1983</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5741,7 +5883,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1983</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5778,7 +5922,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1983</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5815,7 +5961,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1983</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5852,7 +6000,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1983</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5889,7 +6039,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1983</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5926,7 +6078,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1983</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5963,7 +6117,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1983</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6000,7 +6156,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1983</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6037,7 +6195,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1983</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6074,7 +6234,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1983</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6111,7 +6273,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1983</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6148,7 +6312,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>1983</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6185,7 +6351,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1983</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6222,7 +6390,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1983</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6259,7 +6429,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1983</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6296,7 +6468,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1983</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6333,7 +6507,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1983</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6370,7 +6546,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1983</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6407,7 +6585,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1983</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6444,7 +6624,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1983</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6481,7 +6663,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1983</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6518,7 +6702,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1983</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6555,7 +6741,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1983</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6592,7 +6780,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1983</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6629,7 +6819,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1983</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6666,7 +6858,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1983</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6703,7 +6897,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>1983</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6740,7 +6936,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>1983</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6777,7 +6975,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>1983</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6814,7 +7014,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1983</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6851,7 +7053,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>1983</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6888,7 +7092,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1983</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6925,7 +7131,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1983</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6962,7 +7170,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1983</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6999,7 +7209,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1983</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7036,7 +7248,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1983</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7073,7 +7287,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1983</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7110,7 +7326,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1983</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7147,7 +7365,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1983</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7184,7 +7404,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1983</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7221,7 +7443,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1983</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7258,7 +7482,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1983</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7292,16 +7518,20 @@
         <v>7400.054959290002</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1983</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L191" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
       <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
@@ -7327,11 +7557,17 @@
         <v>8211.280959290001</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7360,11 +7596,17 @@
         <v>8211.280959290001</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7393,11 +7635,17 @@
         <v>9625.917559290001</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7426,11 +7674,17 @@
         <v>-1325.471640709999</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7462,8 +7716,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7495,8 +7755,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7528,8 +7794,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7561,8 +7833,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7594,8 +7872,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7627,8 +7911,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7660,8 +7950,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7693,8 +7989,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7726,8 +8028,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7759,8 +8067,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7792,8 +8106,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7825,8 +8145,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7858,8 +8184,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7891,8 +8223,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7924,8 +8262,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7957,8 +8301,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7990,8 +8340,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8023,8 +8379,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8056,8 +8418,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8089,8 +8457,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8122,8 +8496,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8155,8 +8535,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8188,8 +8574,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8221,8 +8613,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8254,8 +8652,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8287,8 +8691,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8320,8 +8730,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8353,8 +8769,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8386,8 +8808,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8419,8 +8847,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8452,8 +8886,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8485,8 +8925,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8518,8 +8964,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8551,8 +9003,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8581,11 +9039,17 @@
         <v>-4466.839806909995</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8614,11 +9078,17 @@
         <v>-4433.321106909995</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8647,11 +9117,17 @@
         <v>-4431.721106909995</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8680,11 +9156,17 @@
         <v>-4530.721106909995</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8713,11 +9195,17 @@
         <v>-4010.285106909995</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8746,11 +9234,17 @@
         <v>-4044.529206909995</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8782,8 +9276,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8815,8 +9315,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8848,8 +9354,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8881,8 +9393,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8914,8 +9432,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8947,8 +9471,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8980,8 +9510,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9010,11 +9546,17 @@
         <v>-5116.752906909995</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9046,8 +9588,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9076,11 +9624,17 @@
         <v>-4892.752906909995</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9112,8 +9666,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9145,8 +9705,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9178,8 +9744,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9211,8 +9783,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9244,8 +9822,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9277,8 +9861,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9310,8 +9900,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9343,8 +9939,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9376,8 +9978,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9409,8 +10017,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9442,8 +10056,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9475,8 +10095,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9508,8 +10134,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9541,8 +10173,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9574,8 +10212,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9607,8 +10251,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9640,8 +10290,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9673,8 +10329,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9706,8 +10368,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9739,8 +10407,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9772,8 +10446,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9805,8 +10485,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9838,8 +10524,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9871,8 +10563,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9904,8 +10602,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9937,8 +10641,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9970,8 +10680,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10003,8 +10719,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10036,8 +10758,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10069,8 +10797,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10102,8 +10836,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10135,8 +10875,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10168,8 +10914,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10201,8 +10953,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10234,8 +10992,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10267,8 +11031,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10300,8 +11070,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10333,8 +11109,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10366,8 +11148,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10399,8 +11187,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10432,8 +11226,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10465,8 +11265,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10498,8 +11304,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10531,8 +11343,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10564,8 +11382,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10597,8 +11421,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10630,8 +11460,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10663,8 +11499,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10696,8 +11538,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10729,8 +11577,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10762,8 +11616,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10795,8 +11655,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10828,8 +11694,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10861,8 +11733,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10894,8 +11772,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10927,8 +11811,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10960,8 +11850,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10993,8 +11889,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11026,8 +11928,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11059,8 +11967,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11092,8 +12006,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11125,8 +12045,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11158,8 +12084,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11191,8 +12123,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11224,8 +12162,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11257,8 +12201,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11290,8 +12240,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11323,8 +12279,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11356,8 +12318,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11389,8 +12357,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11422,8 +12396,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11455,8 +12435,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11488,8 +12474,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11521,8 +12513,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11554,8 +12552,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11584,11 +12588,17 @@
         <v>-1037.064948339995</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11617,11 +12627,17 @@
         <v>2074.178709080005</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11650,11 +12666,17 @@
         <v>1991.459709080005</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11683,11 +12705,17 @@
         <v>2305.650309080005</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11716,11 +12744,17 @@
         <v>2581.708309080005</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11749,11 +12783,17 @@
         <v>2781.708309080005</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11782,11 +12822,17 @@
         <v>2484.608309080005</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11815,11 +12861,17 @@
         <v>2434.733309080005</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11848,11 +12900,17 @@
         <v>2436.733309080005</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11881,11 +12939,17 @@
         <v>2261.296309080005</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11917,8 +12981,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11947,11 +13017,17 @@
         <v>2735.324709080005</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11980,11 +13056,17 @@
         <v>2735.324709080005</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12013,11 +13095,17 @@
         <v>2735.324709080005</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12046,11 +13134,17 @@
         <v>2735.324709080005</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12079,11 +13173,17 @@
         <v>2735.324709080005</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12112,11 +13212,17 @@
         <v>2770.731909080005</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12145,11 +13251,17 @@
         <v>2770.731909080005</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12178,11 +13290,17 @@
         <v>2570.227709080005</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12211,11 +13329,17 @@
         <v>2608.717309080005</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12244,11 +13368,17 @@
         <v>3711.552209080005</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12280,8 +13410,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12313,8 +13449,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12346,8 +13488,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12379,8 +13527,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12412,8 +13566,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12445,8 +13605,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12478,8 +13644,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12511,8 +13683,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12544,8 +13722,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12577,8 +13761,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12610,8 +13800,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12643,8 +13839,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12676,8 +13878,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12709,8 +13917,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12742,8 +13956,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12775,8 +13995,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12808,8 +14034,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12841,8 +14073,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12871,11 +14109,17 @@
         <v>34686.63651682</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12904,11 +14148,17 @@
         <v>34686.63651682</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12937,11 +14187,17 @@
         <v>34247.40851682</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12970,11 +14226,17 @@
         <v>36723.78861682</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13003,11 +14265,17 @@
         <v>34549.00761682</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13036,11 +14304,17 @@
         <v>34256.00761682</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13069,11 +14343,17 @@
         <v>34342.35291682</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13102,11 +14382,17 @@
         <v>35975.54082148999</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13135,11 +14421,17 @@
         <v>33491.18612149</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13168,11 +14460,17 @@
         <v>32383.50972149</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13201,11 +14499,17 @@
         <v>32416.52192149</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13234,11 +14538,17 @@
         <v>33855.41717328</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13267,11 +14577,17 @@
         <v>36979.9089965</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13300,11 +14616,17 @@
         <v>35489.5192174</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13333,11 +14655,17 @@
         <v>38098.39272045001</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13366,11 +14694,17 @@
         <v>36849.39272045001</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13399,11 +14733,17 @@
         <v>36874.14372045</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13432,13 +14772,19 @@
         <v>36874.14372045</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>1983</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L377" t="n">
-        <v>1</v>
+        <v>1.046437216338881</v>
       </c>
       <c r="M377" t="inlineStr"/>
     </row>
@@ -13465,7 +14811,7 @@
         <v>36874.14372045</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13498,7 +14844,7 @@
         <v>35153.34102045</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13531,7 +14877,7 @@
         <v>34049.44652045</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13564,7 +14910,7 @@
         <v>34049.44652045</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13597,7 +14943,7 @@
         <v>36666.84942045</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13630,7 +14976,7 @@
         <v>36666.84942045</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13663,7 +15009,7 @@
         <v>36703.10182045</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13696,7 +15042,7 @@
         <v>37182.58997346</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13729,7 +15075,7 @@
         <v>36857.58997346</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13762,7 +15108,7 @@
         <v>38364.80317346</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13795,7 +15141,7 @@
         <v>39046.12267346</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13828,7 +15174,7 @@
         <v>39070.76977346</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13861,7 +15207,7 @@
         <v>39221.91977346</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13894,7 +15240,7 @@
         <v>40900.56461533</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13927,7 +15273,7 @@
         <v>40900.56461533</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13960,7 +15306,7 @@
         <v>40811.12571533</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13993,7 +15339,7 @@
         <v>41107.24271533</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14026,7 +15372,7 @@
         <v>40563.88531533</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14059,7 +15405,7 @@
         <v>40545.71491533</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14092,7 +15438,7 @@
         <v>38982.32521533</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14125,7 +15471,7 @@
         <v>38982.32521533</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14158,7 +15504,7 @@
         <v>35014.45511533</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14191,7 +15537,7 @@
         <v>35560.25881532999</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14224,7 +15570,7 @@
         <v>35624.85471533</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14257,7 +15603,7 @@
         <v>35524.86711532999</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14290,7 +15636,7 @@
         <v>35506.55481533</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14323,7 +15669,7 @@
         <v>35662.71121533</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14356,7 +15702,7 @@
         <v>35643.03251533</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14389,7 +15735,7 @@
         <v>35643.03251533</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14422,7 +15768,7 @@
         <v>35643.03251533</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14455,7 +15801,7 @@
         <v>35644.03251533</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14488,7 +15834,7 @@
         <v>35254.03251533</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14521,7 +15867,7 @@
         <v>35254.03251533</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14554,7 +15900,7 @@
         <v>35433.55051533</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14587,7 +15933,7 @@
         <v>34994.48051533</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14620,7 +15966,7 @@
         <v>34994.48051533</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14653,7 +15999,7 @@
         <v>34994.48051533</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14686,7 +16032,7 @@
         <v>35166.15111532999</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14719,7 +16065,7 @@
         <v>35173.52631533</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14752,7 +16098,7 @@
         <v>36014.93841533</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14785,7 +16131,7 @@
         <v>36015.93841533</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14818,7 +16164,7 @@
         <v>35995.88591533</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14851,7 +16197,7 @@
         <v>35940.84181533</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14884,7 +16230,7 @@
         <v>35940.84181533</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14917,7 +16263,7 @@
         <v>35940.84181533</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14950,7 +16296,7 @@
         <v>35950.40201533</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14983,7 +16329,7 @@
         <v>35946.61651533</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15016,7 +16362,7 @@
         <v>38813.38691533</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15049,7 +16395,7 @@
         <v>39526.23001533</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15082,7 +16428,7 @@
         <v>38441.13401533</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15115,7 +16461,7 @@
         <v>38785.59891533</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15148,7 +16494,7 @@
         <v>38696.84541533</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15181,7 +16527,7 @@
         <v>37473.35561533</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15214,7 +16560,7 @@
         <v>37410.39561533</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15247,7 +16593,7 @@
         <v>37410.39561533</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15280,7 +16626,7 @@
         <v>36549.34801533</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15313,7 +16659,7 @@
         <v>36649.34801533</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15346,7 +16692,7 @@
         <v>36730.22171533</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15379,7 +16725,7 @@
         <v>36676.20201533</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15412,7 +16758,7 @@
         <v>36676.20201533</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15445,7 +16791,7 @@
         <v>38603.98101533001</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15478,7 +16824,7 @@
         <v>38584.43071533</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15511,7 +16857,7 @@
         <v>38602.57401533001</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15544,7 +16890,7 @@
         <v>38626.49746030001</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15577,7 +16923,7 @@
         <v>38525.19746030001</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15610,7 +16956,7 @@
         <v>38820.1854603</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15643,7 +16989,7 @@
         <v>38799.6431603</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15654,6 +17000,6 @@
       <c r="M444" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-18 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1012,10 +1012,14 @@
         <v>724.3473579699996</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1980</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1980</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1045,11 +1049,19 @@
         <v>724.3473579699996</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1984</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1980</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1093,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1980</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,10 +1129,14 @@
         <v>1034.18055797</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1984</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1984</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
@@ -1147,8 +1169,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1208,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1247,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1286,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1322,19 @@
         <v>-1465.61804203</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1981</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1366,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1405,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1441,19 @@
         <v>-1348.56004203</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1982</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1482,19 @@
         <v>-838.4560420300004</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1982</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1523,19 @@
         <v>-838.4560420300004</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1984</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1564,19 @@
         <v>-498.6681420300004</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1984</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1605,19 @@
         <v>-820.5351420300004</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1985</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1646,19 @@
         <v>-753.9793420300005</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1981</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1687,19 @@
         <v>1204.138857969999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1982</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1731,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1770,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1806,19 @@
         <v>966.2388579699995</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1977</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1847,19 @@
         <v>366.5182579699995</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1981</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1888,19 @@
         <v>289.7252579699995</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1975</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1929,19 @@
         <v>109.5254579699995</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1972</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1970,19 @@
         <v>111.6987579699994</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1970</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2011,19 @@
         <v>534.2397579699995</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1973</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2052,19 @@
         <v>534.2397579699995</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1974</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2093,19 @@
         <v>534.2397579699995</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1974</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2134,19 @@
         <v>534.2397579699995</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1974</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2175,19 @@
         <v>357.6561579699995</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1974</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2216,19 @@
         <v>995.2457579699994</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1973</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2257,19 @@
         <v>978.9439579699995</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1974</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2298,19 @@
         <v>1379.96995797</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1973</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2339,19 @@
         <v>1379.96995797</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1974</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2380,19 @@
         <v>1379.96995797</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1974</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2421,19 @@
         <v>3196.486657969999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1974</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2462,19 @@
         <v>3195.486657969999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1981</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2503,19 @@
         <v>3195.486657969999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1977</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2547,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2586,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2625,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2664,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2703,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2742,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1984</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,15 +2778,17 @@
         <v>3122.9945094</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1975</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>1975</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
+        <v>1984</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,17 +2817,15 @@
         <v>3152.9945094</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1975</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>1975</v>
+        <v>1984</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -2542,17 +2856,15 @@
         <v>3158.03737374</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1979</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>1975</v>
+        <v>1984</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2583,15 +2895,17 @@
         <v>3158.03737374</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
+        <v>1984</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2620,17 +2934,15 @@
         <v>1187.23847374</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -2661,13 +2973,11 @@
         <v>1087.93847374</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1981</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2706,7 +3016,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2741,13 +3051,11 @@
         <v>898.8894737399996</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1976</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2786,7 +3094,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2825,7 +3133,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2864,7 +3172,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2903,7 +3211,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -2942,7 +3250,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -2981,7 +3289,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3020,7 +3328,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3059,7 +3367,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3098,7 +3406,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3133,13 +3441,11 @@
         <v>-198.7861262600002</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3174,13 +3480,11 @@
         <v>-535.7861262600002</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3215,13 +3519,11 @@
         <v>-4979.13762626</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3256,13 +3558,11 @@
         <v>-4778.30502626</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1964</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3297,13 +3597,11 @@
         <v>-4613.58209374</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1968</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3338,13 +3636,11 @@
         <v>-4134.03379167</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3379,13 +3675,11 @@
         <v>-4699.88059167</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1973</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3420,13 +3714,11 @@
         <v>-4419.84009167</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3461,13 +3753,11 @@
         <v>-4489.11509167</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1974</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3502,13 +3792,11 @@
         <v>-4057.60499167</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1972</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3543,13 +3831,11 @@
         <v>-4217.34189167</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1974</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3584,13 +3870,11 @@
         <v>-4213.04459167</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3625,13 +3909,11 @@
         <v>-4263.80459167</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1974</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3666,13 +3948,11 @@
         <v>-5074.56549167</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3707,13 +3987,11 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3748,13 +4026,11 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3789,13 +4065,11 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3830,13 +4104,11 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3871,13 +4143,11 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3912,13 +4182,11 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3953,13 +4221,11 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3994,13 +4260,11 @@
         <v>-4570.116891670001</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4035,13 +4299,11 @@
         <v>-4567.116891670001</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4076,13 +4338,11 @@
         <v>-4569.116891670001</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1976</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4121,7 +4381,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4160,7 +4420,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4199,7 +4459,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4238,7 +4498,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4273,11 +4533,13 @@
         <v>-7287.174200540001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1975</v>
+      </c>
       <c r="J108" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4312,11 +4574,13 @@
         <v>-7287.174200540001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1970</v>
+      </c>
       <c r="J109" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4351,11 +4615,13 @@
         <v>-6438.584200540001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1970</v>
+      </c>
       <c r="J110" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4396,7 +4662,7 @@
         <v>1976</v>
       </c>
       <c r="J111" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4437,7 +4703,7 @@
         <v>1971</v>
       </c>
       <c r="J112" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4478,7 +4744,7 @@
         <v>1973</v>
       </c>
       <c r="J113" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4513,11 +4779,13 @@
         <v>-7258.21210054</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1980</v>
+      </c>
       <c r="J114" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4552,11 +4820,13 @@
         <v>-6830.542700540001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1976</v>
+      </c>
       <c r="J115" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4597,7 +4867,7 @@
         <v>1984</v>
       </c>
       <c r="J116" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4632,11 +4902,13 @@
         <v>-6825.515048460001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1989</v>
+      </c>
       <c r="J117" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4675,7 +4947,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4714,7 +4986,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4753,7 +5025,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4792,7 +5064,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4831,7 +5103,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4870,7 +5142,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4909,7 +5181,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4948,7 +5220,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4983,11 +5255,13 @@
         <v>-8949.532148459999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1981</v>
+      </c>
       <c r="J126" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5026,7 +5300,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5061,11 +5335,13 @@
         <v>-9068.462048459998</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1982</v>
+      </c>
       <c r="J128" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5100,11 +5376,13 @@
         <v>-9067.321648459998</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1982</v>
+      </c>
       <c r="J129" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5143,7 +5421,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5182,7 +5460,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5217,11 +5495,13 @@
         <v>-8473.214748459997</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1982</v>
+      </c>
       <c r="J132" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5260,7 +5540,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5299,7 +5579,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5338,7 +5618,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5377,7 +5657,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5416,7 +5696,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5455,7 +5735,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5494,7 +5774,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5533,7 +5813,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5572,7 +5852,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5611,7 +5891,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5650,7 +5930,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5689,7 +5969,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5724,19 +6004,19 @@
         <v>-8160.675848459997</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>1</v>
+        <v>1.009616935483871</v>
       </c>
       <c r="M145" t="inlineStr"/>
     </row>
@@ -5763,17 +6043,11 @@
         <v>-8013.738748459997</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5802,17 +6076,11 @@
         <v>-6990.263348459996</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5841,17 +6109,11 @@
         <v>-6990.263348459996</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5880,17 +6142,11 @@
         <v>-1055.116248459996</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5919,17 +6175,11 @@
         <v>-547.4191484599963</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5958,17 +6208,11 @@
         <v>-547.4191484599963</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5997,17 +6241,11 @@
         <v>-547.4191484599963</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6036,17 +6274,11 @@
         <v>-14.82024845999638</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6075,17 +6307,11 @@
         <v>427.1250515400036</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6114,17 +6340,11 @@
         <v>74.84505154000362</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6153,17 +6373,11 @@
         <v>74.84505154000362</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6192,17 +6406,11 @@
         <v>74.84505154000362</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6231,17 +6439,11 @@
         <v>74.84505154000362</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6270,17 +6472,11 @@
         <v>-1056.353484679996</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6309,17 +6505,11 @@
         <v>-1056.353484679996</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6348,17 +6538,11 @@
         <v>-1139.872084679997</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6387,17 +6571,11 @@
         <v>-1139.324524309997</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6426,17 +6604,11 @@
         <v>-1170.665224309997</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6465,17 +6637,11 @@
         <v>-1170.665224309997</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6504,17 +6670,11 @@
         <v>704.0379756900033</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6543,17 +6703,11 @@
         <v>1154.610762360003</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6582,17 +6736,11 @@
         <v>2398.936062360003</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6621,17 +6769,11 @@
         <v>2585.207962360003</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6660,17 +6802,11 @@
         <v>2594.997487560003</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6699,17 +6835,11 @@
         <v>2494.897487560003</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6738,17 +6868,11 @@
         <v>2734.897087560003</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6777,17 +6901,11 @@
         <v>2836.643887560003</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6816,17 +6934,11 @@
         <v>3036.690687560003</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6855,17 +6967,11 @@
         <v>3286.690687560003</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6894,17 +7000,11 @@
         <v>3286.690687560003</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6933,17 +7033,11 @@
         <v>3289.890687560003</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6972,17 +7066,11 @@
         <v>3289.890687560003</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7014,14 +7102,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7053,14 +7135,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7092,14 +7168,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7131,14 +7201,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7170,14 +7234,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7209,14 +7267,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7248,14 +7300,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7287,14 +7333,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7326,14 +7366,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7365,14 +7399,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7404,14 +7432,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7443,14 +7465,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7482,14 +7498,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7521,14 +7531,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7560,14 +7564,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7599,14 +7597,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7638,14 +7630,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7677,14 +7663,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7716,14 +7696,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7755,14 +7729,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7794,14 +7762,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7833,14 +7795,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7872,14 +7828,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7911,14 +7861,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7950,14 +7894,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7989,14 +7927,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8028,14 +7960,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8067,14 +7993,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8106,14 +8026,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8145,14 +8059,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8184,14 +8092,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8223,14 +8125,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8262,14 +8158,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8301,14 +8191,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8340,14 +8224,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8379,14 +8257,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8418,14 +8290,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8457,14 +8323,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8496,14 +8356,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8535,14 +8389,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8574,14 +8422,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8613,14 +8455,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8652,14 +8488,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8691,14 +8521,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8730,14 +8554,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8769,14 +8587,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8808,14 +8620,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8847,14 +8653,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8886,14 +8686,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8925,14 +8719,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8964,14 +8752,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9003,14 +8785,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9042,14 +8818,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9081,14 +8851,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9120,14 +8884,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9159,14 +8917,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9198,14 +8950,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9237,14 +8983,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9276,14 +9016,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9315,14 +9049,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9354,14 +9082,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9393,14 +9115,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9432,14 +9148,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9471,14 +9181,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9510,14 +9214,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9549,14 +9247,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9588,14 +9280,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9627,14 +9313,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9666,14 +9346,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9705,14 +9379,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9744,14 +9412,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9783,14 +9445,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9822,14 +9478,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9861,14 +9511,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9900,14 +9544,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9939,14 +9577,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9978,14 +9610,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10017,14 +9643,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10056,14 +9676,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10095,14 +9709,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10134,14 +9742,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10173,14 +9775,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10212,14 +9808,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10251,14 +9841,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10290,14 +9874,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10329,14 +9907,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10368,14 +9940,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10407,14 +9973,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10446,14 +10006,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10485,14 +10039,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10524,14 +10072,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10563,14 +10105,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10602,14 +10138,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10641,14 +10171,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10680,14 +10204,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10719,14 +10237,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10758,14 +10270,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10797,14 +10303,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10836,14 +10336,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10875,14 +10369,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10914,14 +10402,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10953,14 +10435,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10992,14 +10468,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11031,14 +10501,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11070,14 +10534,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11109,14 +10567,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11148,14 +10600,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11187,14 +10633,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11226,14 +10666,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11265,14 +10699,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11304,14 +10732,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11343,14 +10765,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11382,14 +10798,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11421,14 +10831,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11460,14 +10864,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11499,14 +10897,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11538,14 +10930,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11577,14 +10963,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11616,14 +10996,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11655,14 +11029,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11694,14 +11062,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11733,14 +11095,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11772,14 +11128,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11811,14 +11161,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11850,14 +11194,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11889,14 +11227,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11928,14 +11260,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11967,14 +11293,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12006,14 +11326,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12045,14 +11359,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12084,14 +11392,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12123,14 +11425,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12162,14 +11458,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12201,14 +11491,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12240,14 +11524,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12279,14 +11557,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12318,14 +11590,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12357,14 +11623,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12396,14 +11656,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12435,14 +11689,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12474,14 +11722,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12513,14 +11755,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12552,14 +11788,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12591,14 +11821,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12630,14 +11854,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12669,14 +11887,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12708,14 +11920,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12747,14 +11953,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12786,14 +11986,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12825,14 +12019,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12864,14 +12052,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12903,14 +12085,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12942,14 +12118,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12981,14 +12151,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13020,14 +12184,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13059,14 +12217,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13098,14 +12250,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13137,14 +12283,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13176,14 +12316,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13215,14 +12349,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13254,14 +12382,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13293,14 +12415,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13332,14 +12448,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13371,14 +12481,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13410,14 +12514,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13449,14 +12547,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13488,14 +12580,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13527,14 +12613,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13566,14 +12646,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13605,14 +12679,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13644,14 +12712,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13683,14 +12745,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13722,14 +12778,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13761,14 +12811,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13800,14 +12844,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13839,14 +12877,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13878,14 +12910,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13917,14 +12943,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13956,14 +12976,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13995,14 +13009,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14034,14 +13042,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14073,14 +13075,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14112,14 +13108,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14151,14 +13141,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14190,14 +13174,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14229,14 +13207,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14268,14 +13240,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14307,14 +13273,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14346,14 +13306,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14385,14 +13339,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14424,14 +13372,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14463,14 +13405,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14502,14 +13438,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14541,14 +13471,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14580,14 +13504,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14619,14 +13537,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14658,14 +13570,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14697,14 +13603,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14736,14 +13636,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14772,19 +13666,13 @@
         <v>36874.14372045</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>1983</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
-        <v>1.046437216338881</v>
+        <v>1</v>
       </c>
       <c r="M377" t="inlineStr"/>
     </row>
@@ -14811,7 +13699,7 @@
         <v>36874.14372045</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14844,7 +13732,7 @@
         <v>35153.34102045</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14877,7 +13765,7 @@
         <v>34049.44652045</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14910,7 +13798,7 @@
         <v>34049.44652045</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14943,7 +13831,7 @@
         <v>36666.84942045</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14976,7 +13864,7 @@
         <v>36666.84942045</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -15009,7 +13897,7 @@
         <v>36703.10182045</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -15042,7 +13930,7 @@
         <v>37182.58997346</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -15075,7 +13963,7 @@
         <v>36857.58997346</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -15108,7 +13996,7 @@
         <v>38364.80317346</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -15141,7 +14029,7 @@
         <v>39046.12267346</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -15174,7 +14062,7 @@
         <v>39070.76977346</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -15207,7 +14095,7 @@
         <v>39221.91977346</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -15240,7 +14128,7 @@
         <v>40900.56461533</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -15273,7 +14161,7 @@
         <v>40900.56461533</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -15570,7 +14458,7 @@
         <v>35624.85471533</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15636,7 +14524,7 @@
         <v>35506.55481533</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15669,7 +14557,7 @@
         <v>35662.71121533</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15702,7 +14590,7 @@
         <v>35643.03251533</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15735,7 +14623,7 @@
         <v>35643.03251533</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15768,7 +14656,7 @@
         <v>35643.03251533</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15801,7 +14689,7 @@
         <v>35644.03251533</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15834,7 +14722,7 @@
         <v>35254.03251533</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15867,7 +14755,7 @@
         <v>35254.03251533</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15900,7 +14788,7 @@
         <v>35433.55051533</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15933,7 +14821,7 @@
         <v>34994.48051533</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15966,7 +14854,7 @@
         <v>34994.48051533</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15999,7 +14887,7 @@
         <v>34994.48051533</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -16032,7 +14920,7 @@
         <v>35166.15111532999</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -16065,7 +14953,7 @@
         <v>35173.52631533</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -16098,7 +14986,7 @@
         <v>36014.93841533</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -16131,7 +15019,7 @@
         <v>36015.93841533</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -16527,7 +15415,7 @@
         <v>37473.35561533</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16560,7 +15448,7 @@
         <v>37410.39561533</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16593,7 +15481,7 @@
         <v>37410.39561533</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16626,7 +15514,7 @@
         <v>36549.34801533</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16659,7 +15547,7 @@
         <v>36649.34801533</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16692,7 +15580,7 @@
         <v>36730.22171533</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16725,7 +15613,7 @@
         <v>36676.20201533</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16758,7 +15646,7 @@
         <v>36676.20201533</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16791,7 +15679,7 @@
         <v>38603.98101533001</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16824,7 +15712,7 @@
         <v>38584.43071533</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16857,7 +15745,7 @@
         <v>38602.57401533001</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16890,7 +15778,7 @@
         <v>38626.49746030001</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16923,7 +15811,7 @@
         <v>38525.19746030001</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16956,7 +15844,7 @@
         <v>38820.1854603</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16989,7 +15877,7 @@
         <v>38799.6431603</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -17000,6 +15888,6 @@
       <c r="M444" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-18 BackTest QTUM.xlsx
@@ -1012,14 +1012,10 @@
         <v>724.3473579699996</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1980</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1049,19 +1045,11 @@
         <v>724.3473579699996</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1984</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1980</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1093,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>1980</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1129,14 +1111,10 @@
         <v>1034.18055797</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1984</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
@@ -1169,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1208,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1247,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1286,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1322,19 +1276,11 @@
         <v>-1465.61804203</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1981</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1366,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1405,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1441,19 +1375,11 @@
         <v>-1348.56004203</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1982</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1482,19 +1408,11 @@
         <v>-838.4560420300004</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1982</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1523,19 +1441,11 @@
         <v>-838.4560420300004</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1984</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1564,19 +1474,11 @@
         <v>-498.6681420300004</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1984</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1605,19 +1507,11 @@
         <v>-820.5351420300004</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1985</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1646,19 +1540,11 @@
         <v>-753.9793420300005</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1981</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1687,19 +1573,11 @@
         <v>1204.138857969999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1982</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1731,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1770,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1806,19 +1672,11 @@
         <v>966.2388579699995</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1977</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1847,19 +1705,11 @@
         <v>366.5182579699995</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1981</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1888,19 +1738,11 @@
         <v>289.7252579699995</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1975</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1929,19 +1771,11 @@
         <v>109.5254579699995</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1972</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1970,19 +1804,11 @@
         <v>111.6987579699994</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1970</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2011,19 +1837,11 @@
         <v>534.2397579699995</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1973</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2052,19 +1870,11 @@
         <v>534.2397579699995</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1974</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2093,19 +1903,11 @@
         <v>534.2397579699995</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1974</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2134,19 +1936,11 @@
         <v>534.2397579699995</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1974</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2175,19 +1969,11 @@
         <v>357.6561579699995</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1974</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2216,19 +2002,11 @@
         <v>995.2457579699994</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1973</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2257,19 +2035,11 @@
         <v>978.9439579699995</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1974</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2298,19 +2068,11 @@
         <v>1379.96995797</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1973</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2339,19 +2101,11 @@
         <v>1379.96995797</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1974</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2380,19 +2134,11 @@
         <v>1379.96995797</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1974</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2421,19 +2167,11 @@
         <v>3196.486657969999</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1974</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2462,19 +2200,11 @@
         <v>3195.486657969999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1981</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2503,19 +2233,11 @@
         <v>3195.486657969999</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1977</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2547,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2586,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2625,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2664,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2703,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2742,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2781,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2820,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2859,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2898,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2937,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2976,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3015,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3054,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3093,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3132,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3171,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3210,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3249,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3288,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3327,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3366,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3405,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3444,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3483,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3522,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3558,15 +3124,15 @@
         <v>-4778.30502626</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>1984</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1964</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -3597,12 +3163,12 @@
         <v>-4613.58209374</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>1984</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1968</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3639,9 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3675,12 +3239,12 @@
         <v>-4699.88059167</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>1984</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1973</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3714,12 +3278,12 @@
         <v>-4419.84009167</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>1984</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1970</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3753,12 +3317,12 @@
         <v>-4489.11509167</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>1984</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1974</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3792,12 +3356,12 @@
         <v>-4057.60499167</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>1984</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1972</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3831,12 +3395,12 @@
         <v>-4217.34189167</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>1984</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1974</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3870,12 +3434,12 @@
         <v>-4213.04459167</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>1984</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1971</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3909,12 +3473,12 @@
         <v>-4263.80459167</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>1984</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1974</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3948,12 +3512,12 @@
         <v>-5074.56549167</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>1984</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1970</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3987,12 +3551,12 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>1984</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1969</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4026,12 +3590,12 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>1984</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1970</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4065,12 +3629,12 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>1984</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1970</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4104,12 +3668,12 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>1984</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1970</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4143,12 +3707,12 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>1984</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1970</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4182,12 +3746,12 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>1984</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1970</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4221,12 +3785,12 @@
         <v>-5025.423491670001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>1984</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1970</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4260,12 +3824,12 @@
         <v>-4570.116891670001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>1984</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1970</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4299,12 +3863,12 @@
         <v>-4567.116891670001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>1984</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1971</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4338,12 +3902,12 @@
         <v>-4569.116891670001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>1984</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1976</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4377,12 +3941,12 @@
         <v>-4568.116891670001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>1984</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1975</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4416,12 +3980,12 @@
         <v>-7291.229391670001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>1984</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1976</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4455,12 +4019,12 @@
         <v>-7291.229391670001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>1984</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1970</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4494,12 +4058,12 @@
         <v>-7286.166100540001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>1984</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1970</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4533,14 +4097,10 @@
         <v>-7287.174200540001</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1975</v>
-      </c>
-      <c r="J108" t="n">
-        <v>1984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4574,14 +4134,10 @@
         <v>-7287.174200540001</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1970</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4615,14 +4171,10 @@
         <v>-6438.584200540001</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1970</v>
-      </c>
-      <c r="J110" t="n">
-        <v>1984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4661,9 +4213,7 @@
       <c r="I111" t="n">
         <v>1976</v>
       </c>
-      <c r="J111" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4702,9 +4252,7 @@
       <c r="I112" t="n">
         <v>1971</v>
       </c>
-      <c r="J112" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4743,9 +4291,7 @@
       <c r="I113" t="n">
         <v>1973</v>
       </c>
-      <c r="J113" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4784,9 +4330,7 @@
       <c r="I114" t="n">
         <v>1980</v>
       </c>
-      <c r="J114" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4825,9 +4369,7 @@
       <c r="I115" t="n">
         <v>1976</v>
       </c>
-      <c r="J115" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4866,9 +4408,7 @@
       <c r="I116" t="n">
         <v>1984</v>
       </c>
-      <c r="J116" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4902,14 +4442,10 @@
         <v>-6825.515048460001</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1989</v>
-      </c>
-      <c r="J117" t="n">
-        <v>1984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4946,9 +4482,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4985,9 +4519,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5024,9 +4556,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5063,9 +4593,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5102,9 +4630,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5141,9 +4667,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5180,9 +4704,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5219,9 +4741,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5255,14 +4775,10 @@
         <v>-8949.532148459999</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1981</v>
-      </c>
-      <c r="J126" t="n">
-        <v>1984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5299,9 +4815,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5335,14 +4849,10 @@
         <v>-9068.462048459998</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1982</v>
-      </c>
-      <c r="J128" t="n">
-        <v>1984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5376,14 +4886,10 @@
         <v>-9067.321648459998</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1982</v>
-      </c>
-      <c r="J129" t="n">
-        <v>1984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5420,9 +4926,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5459,9 +4963,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5495,14 +4997,10 @@
         <v>-8473.214748459997</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1982</v>
-      </c>
-      <c r="J132" t="n">
-        <v>1984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5539,9 +5037,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5578,9 +5074,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5617,9 +5111,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5656,9 +5148,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5695,9 +5185,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5734,9 +5222,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5773,9 +5259,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5812,9 +5296,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5851,9 +5333,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5890,9 +5370,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5929,9 +5407,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5968,9 +5444,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6004,19 +5478,17 @@
         <v>-8160.675848459997</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>1984</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>1.009616935483871</v>
+        <v>1</v>
       </c>
       <c r="M145" t="inlineStr"/>
     </row>
@@ -6043,11 +5515,15 @@
         <v>-8013.738748459997</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6076,11 +5552,15 @@
         <v>-6990.263348459996</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6109,11 +5589,15 @@
         <v>-6990.263348459996</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6142,11 +5626,15 @@
         <v>-1055.116248459996</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6175,11 +5663,15 @@
         <v>-547.4191484599963</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6208,11 +5700,15 @@
         <v>-547.4191484599963</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6241,11 +5737,15 @@
         <v>-547.4191484599963</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6274,11 +5774,15 @@
         <v>-14.82024845999638</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6307,11 +5811,15 @@
         <v>427.1250515400036</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6340,11 +5848,15 @@
         <v>74.84505154000362</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6373,11 +5885,15 @@
         <v>74.84505154000362</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6406,11 +5922,15 @@
         <v>74.84505154000362</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6439,11 +5959,15 @@
         <v>74.84505154000362</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6472,11 +5996,15 @@
         <v>-1056.353484679996</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6505,11 +6033,15 @@
         <v>-1056.353484679996</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6538,11 +6070,15 @@
         <v>-1139.872084679997</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6571,11 +6107,15 @@
         <v>-1139.324524309997</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6604,11 +6144,15 @@
         <v>-1170.665224309997</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6637,11 +6181,15 @@
         <v>-1170.665224309997</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6670,11 +6218,15 @@
         <v>704.0379756900033</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6703,11 +6255,15 @@
         <v>1154.610762360003</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6736,11 +6292,15 @@
         <v>2398.936062360003</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6769,11 +6329,15 @@
         <v>2585.207962360003</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6802,11 +6366,15 @@
         <v>2594.997487560003</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6835,11 +6403,15 @@
         <v>2494.897487560003</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6868,11 +6440,15 @@
         <v>2734.897087560003</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6901,11 +6477,15 @@
         <v>2836.643887560003</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6934,11 +6514,15 @@
         <v>3036.690687560003</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6967,11 +6551,15 @@
         <v>3286.690687560003</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7000,11 +6588,15 @@
         <v>3286.690687560003</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7033,11 +6625,15 @@
         <v>3289.890687560003</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7066,11 +6662,15 @@
         <v>3289.890687560003</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7103,7 +6703,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7136,7 +6740,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7169,7 +6777,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7202,7 +6814,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7235,7 +6851,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7268,7 +6888,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7301,7 +6925,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7334,7 +6962,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7367,7 +6999,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7400,7 +7036,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7433,7 +7073,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7466,7 +7110,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7499,7 +7147,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7532,7 +7184,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7565,7 +7221,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7598,7 +7258,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7631,7 +7295,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7664,7 +7332,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7697,7 +7369,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7730,7 +7406,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7763,7 +7443,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7796,7 +7480,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7829,7 +7517,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7862,7 +7554,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7895,7 +7591,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7928,7 +7628,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7961,7 +7665,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7994,7 +7702,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8027,7 +7739,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8060,7 +7776,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8093,7 +7813,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8126,7 +7850,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8159,7 +7887,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8192,7 +7924,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8225,7 +7961,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8258,7 +7998,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8291,7 +8035,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8324,7 +8072,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8357,7 +8109,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8390,7 +8146,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8423,7 +8183,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8456,7 +8220,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8489,7 +8257,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8522,7 +8294,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8555,7 +8331,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8588,7 +8368,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8621,7 +8405,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8654,7 +8442,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8687,7 +8479,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8720,7 +8516,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8753,7 +8553,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8786,7 +8590,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8819,7 +8627,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8852,7 +8664,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8885,7 +8701,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8918,7 +8738,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8951,7 +8775,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8984,7 +8812,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9017,7 +8849,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9050,7 +8886,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9083,7 +8923,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9116,7 +8960,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9149,7 +8997,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9182,7 +9034,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9215,7 +9071,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9248,7 +9108,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9281,7 +9145,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9314,7 +9182,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9347,7 +9219,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9380,7 +9256,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9413,7 +9293,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9446,7 +9330,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9479,7 +9367,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9512,7 +9404,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9545,7 +9441,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9578,7 +9478,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9611,7 +9515,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9644,7 +9552,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9677,7 +9589,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9710,7 +9626,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9743,7 +9663,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9776,7 +9700,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9809,7 +9737,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9842,7 +9774,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9875,7 +9811,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9908,7 +9848,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9941,7 +9885,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9974,7 +9922,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10007,7 +9959,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10040,7 +9996,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10073,7 +10033,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10106,7 +10070,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10139,7 +10107,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10172,7 +10144,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10205,7 +10181,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10238,7 +10218,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10271,7 +10255,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10304,7 +10292,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10337,7 +10329,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10370,7 +10366,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10403,7 +10403,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10436,7 +10440,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10469,7 +10477,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10502,7 +10514,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10535,7 +10551,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10568,7 +10588,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10601,7 +10625,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10634,7 +10662,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10667,7 +10699,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10700,7 +10736,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10733,7 +10773,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10766,7 +10810,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10799,7 +10847,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10832,7 +10884,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10865,7 +10921,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10898,7 +10958,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10931,7 +10995,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10964,7 +11032,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10997,7 +11069,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11030,7 +11106,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11063,7 +11143,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11096,7 +11180,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11129,7 +11217,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11162,7 +11254,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11195,7 +11291,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11228,7 +11328,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11261,7 +11365,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11294,7 +11402,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11327,7 +11439,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11360,7 +11476,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11393,7 +11513,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11426,7 +11550,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11459,7 +11587,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11492,7 +11624,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11525,7 +11661,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11558,7 +11698,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11591,7 +11735,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11624,7 +11772,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11657,7 +11809,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11690,7 +11846,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11723,7 +11883,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11756,7 +11920,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11789,7 +11957,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11822,7 +11994,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11855,7 +12031,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11888,7 +12068,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11921,7 +12105,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11954,7 +12142,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11987,7 +12179,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12020,7 +12216,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12053,7 +12253,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12086,7 +12290,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12119,7 +12327,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12152,7 +12364,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12185,7 +12401,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12218,7 +12438,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12251,7 +12475,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12284,7 +12512,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12317,7 +12549,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12350,7 +12586,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12383,7 +12623,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12416,7 +12660,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12449,7 +12697,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12482,7 +12734,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12515,7 +12771,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12548,7 +12808,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12581,7 +12845,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12614,7 +12882,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12647,7 +12919,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12680,7 +12956,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12713,7 +12993,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12746,7 +13030,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12779,7 +13067,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12812,7 +13104,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12845,7 +13141,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12878,7 +13178,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12911,7 +13215,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12944,7 +13252,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12977,7 +13289,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13010,7 +13326,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13043,7 +13363,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13076,7 +13400,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13109,7 +13437,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13142,7 +13474,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13175,7 +13511,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13208,7 +13548,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13241,7 +13585,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13274,7 +13622,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13307,7 +13659,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13340,7 +13696,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13369,14 +13729,16 @@
         <v>33491.18612149</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L368" t="inlineStr"/>
       <c r="M368" t="inlineStr"/>
     </row>
     <row r="369">
@@ -13402,7 +13764,7 @@
         <v>32383.50972149</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13435,7 +13797,7 @@
         <v>32416.52192149</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13501,7 +13863,7 @@
         <v>36979.9089965</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13534,7 +13896,7 @@
         <v>35489.5192174</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13567,7 +13929,7 @@
         <v>38098.39272045001</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13600,7 +13962,7 @@
         <v>36849.39272045001</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13633,7 +13995,7 @@
         <v>36874.14372045</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13666,7 +14028,7 @@
         <v>36874.14372045</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13699,7 +14061,7 @@
         <v>36874.14372045</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13732,7 +14094,7 @@
         <v>35153.34102045</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13765,7 +14127,7 @@
         <v>34049.44652045</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13798,7 +14160,7 @@
         <v>34049.44652045</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13831,7 +14193,7 @@
         <v>36666.84942045</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13864,7 +14226,7 @@
         <v>36666.84942045</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13897,7 +14259,7 @@
         <v>36703.10182045</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13930,7 +14292,7 @@
         <v>37182.58997346</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13963,7 +14325,7 @@
         <v>36857.58997346</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13996,7 +14358,7 @@
         <v>38364.80317346</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14029,7 +14391,7 @@
         <v>39046.12267346</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14062,7 +14424,7 @@
         <v>39070.76977346</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14095,7 +14457,7 @@
         <v>39221.91977346</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14128,7 +14490,7 @@
         <v>40900.56461533</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14161,7 +14523,7 @@
         <v>40900.56461533</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14194,7 +14556,7 @@
         <v>40811.12571533</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14227,7 +14589,7 @@
         <v>41107.24271533</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14260,7 +14622,7 @@
         <v>40563.88531533</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14293,7 +14655,7 @@
         <v>40545.71491533</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14326,7 +14688,7 @@
         <v>38982.32521533</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14359,7 +14721,7 @@
         <v>38982.32521533</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14392,7 +14754,7 @@
         <v>35014.45511533</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14425,7 +14787,7 @@
         <v>35560.25881532999</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14458,7 +14820,7 @@
         <v>35624.85471533</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
